--- a/Speech_Therapy_Centers_Egypt.xlsx
+++ b/Speech_Therapy_Centers_Egypt.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,11 +444,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="28" customWidth="1" min="3" max="3"/>
-    <col width="40" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="42" customWidth="1" min="1" max="1"/>
+    <col width="32" customWidth="1" min="2" max="2"/>
+    <col width="32" customWidth="1" min="3" max="3"/>
+    <col width="48" customWidth="1" min="4" max="4"/>
+    <col width="28" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -562,7 +562,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Behman Therapy Center - Mohandeseen</t>
+          <t>Behman Therapy Center - Ramsis Square</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -572,12 +572,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>+202 304 7453</t>
+          <t>+202 591 9340</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>55 Abdel Moneim Riad St., Mohandeseen, Cairo</t>
+          <t>80 El-Gomhuriyya St., Ramsis Square, Cairo</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -589,7 +589,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Behman Therapy Center - Heliopolis</t>
+          <t>Behman Therapy Center - Mohandeseen</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -599,12 +599,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>+202 418 3572</t>
+          <t>+202 304 7453</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3 Hassan Sadek St., Heliopolis, Cairo</t>
+          <t>55 Abdel Moneim Riad St., Mohandeseen, Cairo</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Behman Therapy Center - Zamalek</t>
+          <t>Behman Therapy Center - Heliopolis</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -626,12 +626,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>+201 211 198 495</t>
+          <t>+202 418 3572</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4A Hassan Assem St., Zamalek, Cairo</t>
+          <t>3 Hassan Sadek St., Heliopolis, Cairo</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -643,7 +643,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Behman Therapy Center - New Cairo</t>
+          <t>Behman Therapy Center - Zamalek</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -653,12 +653,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>+2 25659074, 01200900774</t>
+          <t>+201 211 198 495</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Building 96, Apartment 1, Street 157, New Cairo</t>
+          <t>4A Hassan Assem St., Zamalek, Cairo</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -670,7 +670,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Behman Therapy Center - Sheikh Zayed</t>
+          <t>Behman Therapy Center - New Cairo</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -680,12 +680,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>01270777594</t>
+          <t>+2 25659074, 01200900774</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Karma 3 Compound Gate, Sheikh Zayed, Cairo</t>
+          <t>Building 96, Apartment 1, Street 157, New Cairo</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Learning Resource Center (LRC)</t>
+          <t>Behman Therapy Center - Sheikh Zayed</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -707,24 +707,24 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>+20 122 332 809, +202 251 6 3965</t>
+          <t>01270777594</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Building #9, Road 278, New Maadi, Cairo</t>
+          <t>Karma 3 Compound Gate, Sheikh Zayed, Cairo</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>info@lrcegypt.org</t>
+          <t>info@behman.com</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Oasis Clinics</t>
+          <t>Oasis Clinics - Main</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -751,88 +751,88 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>Maadi Psychology Center - Sarayat Maadi</t>
+          <t>Oasis Clinics - Sheikh Zayed (Dr. Ayman Shawky)</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Dr. Hassan Eissa (SLT), Dr. Nasser Loza (Founder)</t>
+          <t>Dr. Ayman Shawky</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>+20 121 298 1877</t>
+          <t>+20 100 4000 777</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Building 64, Street 13, Sarayat El Maadi, Cairo</t>
+          <t>Sheikh Zayed, Cairo</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Contact@maadipc.com</t>
+          <t>info@oasisclinics.com</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>Maadi Psychology Center - Degla Maadi</t>
+          <t>Oasis Clinics - New Cairo (Dr. Mona El-Akkad)</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Dr. Hassan Eissa (SLT), Dr. Nasser Loza (Founder)</t>
+          <t>Dr. Mona El-Akkad</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>+20 121 298 1877</t>
+          <t>+20 100 4000 776</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Degla Maadi, Cairo</t>
+          <t>New Cairo, Cairo</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>Contact@maadipc.com</t>
+          <t>info@oasisclinics.com</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Maadi Psychology Center - Sheikh Zayed</t>
+          <t>Learning Resource Center (LRC)</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Dr. Hassan Eissa (SLT), Dr. Nasser Loza (Founder)</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>01270777594</t>
+          <t>+20 122 332 809, +202 251 6 3965</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Karma 3 Compound Gate, Sheikh Zayed, Cairo</t>
+          <t>Building #9, Road 278, New Maadi, Cairo</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>Contact@maadipc.com</t>
+          <t>info@lrcegypt.org</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Maadi Psychology Center - New Cairo</t>
+          <t>Maadi Psychology Center - Sarayat Maadi</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -842,12 +842,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>+2 25659074, 01200900774</t>
+          <t>+20 121 298 1877</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Building 96, Apartment 1, Street 157, New Cairo</t>
+          <t>Building 64, Street 13, Sarayat El Maadi, Cairo</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -859,106 +859,1348 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>Launch Egypt</t>
+          <t>Maadi Psychology Center - Degla Maadi</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Dr. Hassan Eissa (SLT), Dr. Nasser Loza (Founder)</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>+20 121 298 1877</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Cairo, Egypt</t>
+          <t>Degla Maadi, Cairo</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Contact@maadipc.com</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>Clinics ENT - Mohandeseen</t>
+          <t>Maadi Psychology Center - Sheikh Zayed</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Dr. Hassan Eissa (SLT), Dr. Nasser Loza (Founder)</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>01044437797</t>
+          <t>01270777594</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>56 Syria St., Mit Akaba, Agouza, Cairo</t>
+          <t>Karma 3 Compound Gate, Sheikh Zayed, Cairo</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Contact@maadipc.com</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>Aspects Clinica - Al-Rehab</t>
+          <t>Maadi Psychology Center - New Cairo</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Dr. Hassan Eissa (SLT), Dr. Nasser Loza (Founder)</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>01201111344</t>
+          <t>+2 25659074, 01200900774</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Gateway Mall, Gate 12, Building DS-22, New Cairo</t>
+          <t>Building 96, Apartment 1, Street 157, New Cairo</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Contact@maadipc.com</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>El Manyal Clinic</t>
+          <t>Fikra Center for Speech Therapy</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Dr. Muhammad Fayez Al-Deeb</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>01009007290</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>87 Manyal Street, Beside Alpha Lab, First Floor, Clinic No 4</t>
+          <t>Multiple branches in Cairo</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Fikra Center - Al-Ammar Al-Kubra Branch</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Muhammad Fayez Al-Deeb</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>01009007290</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Next to Al-Diab Mosque, Al-Ammar Al-Kubra, Cairo</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Fikra Center - Benha Branch</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Muhammad Fayez Al-Deeb</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>01009007290</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>End of Farghali Street, Benha</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Fikra Center - Mit Al-Sabaa Branch</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Muhammad Fayez Al-Deeb</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>01009007290</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Inside KidZania Academy, Mit Al-Sabaa, Cairo</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Launch Egypt</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>Cairo, Egypt</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>CHILD Consultancy Services (ABA/Autism)</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>Cairo, Egypt</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Sama Clinic - Nasr City</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>79 Tiba Buildings, Nasr Road, Nasr City, Cairo</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Clinics ENT - Mohandeseen</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>01044437797</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>56 Syria St., Mit Akaba, Agouza, Cairo</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Clinics ENT - Dokki</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>01044437797</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>Dokki, Cairo</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Clinics ENT - El Manyal</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>87 Manyal Street, Beside Alpha Lab, Cairo</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>Aspects Clinica - Al-Rehab</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>01201111344</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>Gateway Mall, Gate 12, Building DS-22, New Cairo</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Step by Step Academy</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Fatma Salman (Supervisor)</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>Cairo/Port Said, Egypt</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Al Amal Physical Therapy Center - Maadi</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>+20227548690, +201010353216</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>3/1 Al Lasilky St., Apartment 23, New Maadi, Cairo</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Al Amal Physical Therapy Center - New Cairo</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>+20228124220, +201092349084</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>Clinic 113 HCC Clinics Building, New Cairo</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Dar al Amal Center for Therapy</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>Cairo, Egypt</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Eden Healthcare - Speech Therapy Unit</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>Cairo, Egypt</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>GREEN KIDDIE CARE Center</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>The Block Mall, next to Green 4 Compound, Sheikh Zayed, Giza</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Iqraa Academy</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>3 Omar Ibn Al-Khattab Street, Al-Warraq Area, Giza</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>Misr International Hospital (MIH) - Speech Therapy</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>Giza Governorate, Egypt</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Cleopatra October Hospital - Speech Therapy</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>October City, Giza, Egypt</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Rasha FAROUK SAFWAT - Speech Therapy</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Rasha FAROUK SAFWAT</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>Building 8/12, Zahraa AlMaadi, Maadi, Cairo</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Safaa El Sebaei - Speech Therapy</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Safaa El Sebaei</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>Nasr City, Cairo</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Manal Soud - Speech Therapy (Sama Clinic)</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Manal Soud</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>Sama Clinic, Nasr City, Cairo</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Amaal El Sebeay - Speech Therapy (Sama Clinic)</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Amaal El Sebeay</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>Sama Clinic, Nasr City, Cairo</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Nasr Hafez - Speech Therapy (Sama Clinic)</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Nasr Hafez</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>Sama Clinic, Nasr City, Cairo</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Ashraf Abou Bakr - Speech Therapy (Sama Clinic)</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Ashraf Abou Bakr</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>Sama Clinic, Nasr City, Cairo</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Nouran Mohamed Abdelwahab El Sallab - Phoniatrician</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Nouran Mohamed Abdelwahab El Sallab</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>6th of October, Magdah Square, Hosary</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Abdelrahman Mohamed Abdo - Speech Specialist</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Abdelrahman Mohamed Abdo</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>Cairo, Egypt</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Lily Taher - Speech &amp; Behavior Modification</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Lily Taher</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>New Cairo, Cairo</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Merna Nagy - Speech Therapy (El Nozha)</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Merna Nagy (Psychologist)</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>El Nozha, Cairo</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Amira El-Shennawy - Phoniatrician (Oasis Clinics)</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Amira El-Shennawy</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>Oasis Clinics, Cairo</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Elmeshmeshy - Consultant Phoniatrician</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Elmeshmeshy</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>Cairo University Hospitals, Cairo</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Arab Therapy Team</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>AlmaCare Clinic - Mental Health &amp; Speech</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Wassem Ashraf, Dr. Phoebe Rofail</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>Cairo, Egypt</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>Simplify Egypt - ABA Therapy &amp; Speech</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>Cairo, Egypt</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Bloom - ABA Center &amp; Early Intervention</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>New Cairo, Egypt</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>Momentum for Behavioral Services</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>Cairo, Egypt</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Cure Center for Ear and Speech</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>Al Wosta, Cairo, Egypt</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>MM Skin Clinic - Speech Therapy</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Mohamed Mohie</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>Mohandessein, Giza, Egypt</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>CliniDo Platform (Online Directory)</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>Egypt-wide directory</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>Vezeeta (53+ Phoniatricians listed)</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>Egypt-wide directory</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>DoctorUna (Egypt-wide Directory)</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>Egypt-wide directory</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>Medicawy (Appointment Booking Platform)</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>Egypt-wide directory</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>MEDOC (Medical Directory &amp; Booking)</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>+201206756667</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>The Greek Campus, Mall of Arabia, 6th of October, Giza</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>MyMeditravel (Medical Tourism Directory)</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>Egypt-wide directory</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Dalili Medical (26+ Doctors in Cairo listed)</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>Egypt-wide directory</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>Re3aya247 (28 Speech Therapy Doctors)</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>Egypt-wide directory</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
         </is>

--- a/Speech_Therapy_Centers_Egypt.xlsx
+++ b/Speech_Therapy_Centers_Egypt.xlsx
@@ -28,7 +28,7 @@
     <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
-      <sz val="12"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
@@ -40,8 +40,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00366092"/>
-        <bgColor rgb="00366092"/>
+        <fgColor rgb="001F4E78"/>
+        <bgColor rgb="001F4E78"/>
       </patternFill>
     </fill>
   </fills>
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,11 +444,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="42" customWidth="1" min="1" max="1"/>
-    <col width="32" customWidth="1" min="2" max="2"/>
-    <col width="32" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
-    <col width="28" customWidth="1" min="5" max="5"/>
+    <col width="26" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -477,6 +478,11 @@
           <t>Email</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Governorate</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -496,12 +502,17 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>El Manyal, Cairo, Egypt</t>
+          <t>El Manyal, Cairo</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
@@ -523,12 +534,17 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>72 Zakir Hussein St, Abbas El-Akkad, Nasr City, Cairo</t>
+          <t>72 Zakir Hussein St, Abbas El-Akkad, Nasr City</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
@@ -550,12 +566,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>32 El-Marsad St., Helwan 11421, Cairo</t>
+          <t>32 El-Marsad St., Helwan 11421</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
           <t>info@behman.com</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
@@ -577,12 +598,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80 El-Gomhuriyya St., Ramsis Square, Cairo</t>
+          <t>80 El-Gomhuriyya St., Ramsis Square</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
           <t>info@behman.com</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
@@ -604,12 +630,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>55 Abdel Moneim Riad St., Mohandeseen, Cairo</t>
+          <t>55 Abdel Moneim Riad St., Mohandeseen</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
           <t>info@behman.com</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
@@ -631,12 +662,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3 Hassan Sadek St., Heliopolis, Cairo</t>
+          <t>3 Hassan Sadek St., Heliopolis</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
           <t>info@behman.com</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
@@ -658,19 +694,24 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4A Hassan Assem St., Zamalek, Cairo</t>
+          <t>4A Hassan Assem St., Zamalek</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
           <t>info@behman.com</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Behman Therapy Center - New Cairo</t>
+          <t>Learning Resource Center (LRC)</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -680,132 +721,157 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>+2 25659074, 01200900774</t>
+          <t>+20 122 332 809, +202 251 6 3965</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Building 96, Apartment 1, Street 157, New Cairo</t>
+          <t>Building #9, Road 278, New Maadi</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>info@behman.com</t>
+          <t>info@lrcegypt.org</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Behman Therapy Center - Sheikh Zayed</t>
+          <t>Maadi Psychology Center - Sarayat Maadi</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Dr. Hassan Eissa (SLT), Dr. Nasser Loza</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>01270777594</t>
+          <t>+20 121 298 1877</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Karma 3 Compound Gate, Sheikh Zayed, Cairo</t>
+          <t>Building 64, Street 13, Sarayat El Maadi</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>info@behman.com</t>
+          <t>Contact@maadipc.com</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Oasis Clinics - Main</t>
+          <t>Maadi Psychology Center - Degla Maadi</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Dr. Hassan Eissa (SLT), Dr. Nasser Loza</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>+20 100 4000 777, +20 100 4000 776</t>
+          <t>+20 121 298 1877</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Sheikh Zayed &amp; New Cairo locations</t>
+          <t>Degla Maadi</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>info@oasisclinics.com</t>
+          <t>Contact@maadipc.com</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>Oasis Clinics - Sheikh Zayed (Dr. Ayman Shawky)</t>
+          <t>Launch Egypt</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Dr. Ayman Shawky</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>+20 100 4000 777</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Sheikh Zayed, Cairo</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>info@oasisclinics.com</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>Oasis Clinics - New Cairo (Dr. Mona El-Akkad)</t>
+          <t>Sama Clinic - Nasr City</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Dr. Mona El-Akkad</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>+20 100 4000 776</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>New Cairo, Cairo</t>
+          <t>79 Tiba Buildings, Nasr Road, Nasr City</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>info@oasisclinics.com</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Learning Resource Center (LRC)</t>
+          <t>Clinics ENT - Mohandeseen</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -815,245 +881,290 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>+20 122 332 809, +202 251 6 3965</t>
+          <t>01044437797</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Building #9, Road 278, New Maadi, Cairo</t>
+          <t>56 Syria St., Mit Akaba, Agouza</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>info@lrcegypt.org</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Maadi Psychology Center - Sarayat Maadi</t>
+          <t>Clinics ENT - Dokki</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Dr. Hassan Eissa (SLT), Dr. Nasser Loza (Founder)</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>+20 121 298 1877</t>
+          <t>01044437797</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Building 64, Street 13, Sarayat El Maadi, Cairo</t>
+          <t>Dokki</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>Contact@maadipc.com</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>Maadi Psychology Center - Degla Maadi</t>
+          <t>Clinics ENT - El Manyal</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Dr. Hassan Eissa (SLT), Dr. Nasser Loza (Founder)</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>+20 121 298 1877</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Degla Maadi, Cairo</t>
+          <t>87 Manyal Street, Beside Alpha Lab, Cairo</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Contact@maadipc.com</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>Maadi Psychology Center - Sheikh Zayed</t>
+          <t>Step by Step Academy</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Dr. Hassan Eissa (SLT), Dr. Nasser Loza (Founder)</t>
+          <t>Fatma Salman (Supervisor)</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>01270777594</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Karma 3 Compound Gate, Sheikh Zayed, Cairo</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Contact@maadipc.com</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>Maadi Psychology Center - New Cairo</t>
+          <t>Fikra Center - Al-Ammar Al-Kubra Branch</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Dr. Hassan Eissa (SLT), Dr. Nasser Loza (Founder)</t>
+          <t>Dr. Muhammad Fayez Al-Deeb</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>+2 25659074, 01200900774</t>
+          <t>01009007290</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Building 96, Apartment 1, Street 157, New Cairo</t>
+          <t>Next to Al-Diab Mosque, Al-Ammar Al-Kubra</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Contact@maadipc.com</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>Fikra Center for Speech Therapy</t>
+          <t>CHILD Consultancy Services (ABA/Autism)</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Dr. Muhammad Fayez Al-Deeb</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>01009007290</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Multiple branches in Cairo</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Fikra Center - Al-Ammar Al-Kubra Branch</t>
+          <t>Dr. Rasha FAROUK SAFWAT - Speech Therapy</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Dr. Muhammad Fayez Al-Deeb</t>
+          <t>Dr. Rasha FAROUK SAFWAT</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>01009007290</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Next to Al-Diab Mosque, Al-Ammar Al-Kubra, Cairo</t>
+          <t>Building 8/12, Zahraa AlMaadi, Maadi</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>Fikra Center - Benha Branch</t>
+          <t>Dr. Safaa El Sebaei - Speech Therapy</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Dr. Muhammad Fayez Al-Deeb</t>
+          <t>Dr. Safaa El Sebaei</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>01009007290</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>End of Farghali Street, Benha</t>
+          <t>Nasr City</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>Fikra Center - Mit Al-Sabaa Branch</t>
+          <t>Dr. Manal Soud - Speech Therapy</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Dr. Muhammad Fayez Al-Deeb</t>
+          <t>Dr. Manal Soud</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>01009007290</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Inside KidZania Academy, Mit Al-Sabaa, Cairo</t>
+          <t>Sama Clinic, Nasr City</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>Launch Egypt</t>
+          <t>Dr. Amaal El Sebeay - Speech Therapy</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Dr. Amaal El Sebeay</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -1063,24 +1174,29 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Cairo, Egypt</t>
+          <t>Sama Clinic, Nasr City</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>CHILD Consultancy Services (ABA/Autism)</t>
+          <t>Dr. Nasr Hafez - Speech Therapy</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Dr. Nasr Hafez</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -1090,24 +1206,29 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Cairo, Egypt</t>
+          <t>Sama Clinic, Nasr City</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>Sama Clinic - Nasr City</t>
+          <t>Dr. Ashraf Abou Bakr - Speech Therapy</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Dr. Ashraf Abou Bakr</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -1117,19 +1238,24 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>79 Tiba Buildings, Nasr Road, Nasr City, Cairo</t>
+          <t>Sama Clinic, Nasr City</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>Clinics ENT - Mohandeseen</t>
+          <t>Arab Therapy Team</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1139,51 +1265,61 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>01044437797</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>56 Syria St., Mit Akaba, Agouza, Cairo</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>Clinics ENT - Dokki</t>
+          <t>AlmaCare Clinic</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Dr. Wassem Ashraf, Dr. Phoebe Rofail</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>01044437797</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Dokki, Cairo</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>Clinics ENT - El Manyal</t>
+          <t>Simplify Egypt - ABA Therapy</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1198,19 +1334,24 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>87 Manyal Street, Beside Alpha Lab, Cairo</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>Aspects Clinica - Al-Rehab</t>
+          <t>Momentum for Behavioral Services</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1220,29 +1361,34 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>01201111344</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Gateway Mall, Gate 12, Building DS-22, New Cairo</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>Step by Step Academy</t>
+          <t>Eden Healthcare - Speech Therapy Unit</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Fatma Salman (Supervisor)</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -1252,78 +1398,93 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Cairo/Port Said, Egypt</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>Al Amal Physical Therapy Center - Maadi</t>
+          <t>Merna Nagy - Speech Therapy (El Nozha)</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Merna Nagy (Psychologist)</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>+20227548690, +201010353216</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>3/1 Al Lasilky St., Apartment 23, New Maadi, Cairo</t>
+          <t>El Nozha, Cairo</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>Al Amal Physical Therapy Center - New Cairo</t>
+          <t>Dr. Abdelrahman Mohamed Abdo - Speech Specialist</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Dr. Abdelrahman Mohamed Abdo</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>+20228124220, +201092349084</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Clinic 113 HCC Clinics Building, New Cairo</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>Dar al Amal Center for Therapy</t>
+          <t>Nouran Mohamed Abdelwahab El Sallab</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Nouran Mohamed Abdelwahab El Sallab</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -1333,24 +1494,29 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Cairo, Egypt</t>
+          <t>6th of October, Magdah Square, Hosary</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>Eden Healthcare - Speech Therapy Unit</t>
+          <t>Dr. Lily Taher - Speech &amp; Behavior</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Dr. Lily Taher</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
@@ -1360,19 +1526,24 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Cairo, Egypt</t>
+          <t>New Cairo</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>GREEN KIDDIE CARE Center</t>
+          <t>Cure Center for Ear and Speech</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -1387,73 +1558,88 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>The Block Mall, next to Green 4 Compound, Sheikh Zayed, Giza</t>
+          <t>Al Wosta, Cairo</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>Iqraa Academy</t>
+          <t>Oasis Clinics - Sheikh Zayed</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Dr. Ayman Shawky</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>+20 100 4000 777</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>3 Omar Ibn Al-Khattab Street, Al-Warraq Area, Giza</t>
+          <t>Sheikh Zayed, Giza</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>info@oasisclinics.com</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>Giza</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>Misr International Hospital (MIH) - Speech Therapy</t>
+          <t>Maadi Psychology Center - Sheikh Zayed</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Dr. Hassan Eissa (SLT), Dr. Nasser Loza</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>01270777594</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>Giza Governorate, Egypt</t>
+          <t>Karma 3 Compound Gate, Sheikh Zayed</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Contact@maadipc.com</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>Giza</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>Cleopatra October Hospital - Speech Therapy</t>
+          <t>Behman Therapy Center - New Cairo</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -1463,164 +1649,194 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>+2 25659074, 01200900774</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>October City, Giza, Egypt</t>
+          <t>Building 96, Apartment 1, Street 157, New Cairo</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>info@behman.com</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>Giza</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>Dr. Rasha FAROUK SAFWAT - Speech Therapy</t>
+          <t>Behman Therapy Center - Sheikh Zayed</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>Dr. Rasha FAROUK SAFWAT</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>01270777594</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>Building 8/12, Zahraa AlMaadi, Maadi, Cairo</t>
+          <t>Karma 3 Compound Gate, Sheikh Zayed</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>info@behman.com</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>Giza</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>Dr. Safaa El Sebaei - Speech Therapy</t>
+          <t>Maadi Psychology Center - New Cairo</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Dr. Safaa El Sebaei</t>
+          <t>Dr. Hassan Eissa (SLT), Dr. Nasser Loza</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>+2 25659074, 01200900774</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>Nasr City, Cairo</t>
+          <t>Building 96, Apartment 1, Street 157, New Cairo</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Contact@maadipc.com</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>Giza</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>Dr. Manal Soud - Speech Therapy (Sama Clinic)</t>
+          <t>Oasis Clinics - New Cairo</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>Dr. Manal Soud</t>
+          <t>Dr. Mona El-Akkad</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>+20 100 4000 776</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>Sama Clinic, Nasr City, Cairo</t>
+          <t>New Cairo, Giza</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>info@oasisclinics.com</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>Giza</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Dr. Amaal El Sebeay - Speech Therapy (Sama Clinic)</t>
+          <t>Aspects Clinica - Al-Rehab</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Dr. Amaal El Sebeay</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>01201111344</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>Sama Clinic, Nasr City, Cairo</t>
+          <t>Gateway Mall, Gate 12, Building DS-22, New Cairo</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>Giza</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>Dr. Nasr Hafez - Speech Therapy (Sama Clinic)</t>
+          <t>Al Amal Physical Therapy Center - New Cairo</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>Dr. Nasr Hafez</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>+20228124220, +201092349084</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>Sama Clinic, Nasr City, Cairo</t>
+          <t>Clinic 113 HCC Clinics Building, New Cairo</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>Giza</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>Dr. Ashraf Abou Bakr - Speech Therapy (Sama Clinic)</t>
+          <t>Iqraa Academy</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>Dr. Ashraf Abou Bakr</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -1630,24 +1846,29 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>Sama Clinic, Nasr City, Cairo</t>
+          <t>3 Omar Ibn Al-Khattab Street, Al-Warraq Area, Giza</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>Giza</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>Nouran Mohamed Abdelwahab El Sallab - Phoniatrician</t>
+          <t>GREEN KIDDIE CARE Center</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>Nouran Mohamed Abdelwahab El Sallab</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -1657,24 +1878,29 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>6th of October, Magdah Square, Hosary</t>
+          <t>The Block Mall, next to Green 4 Compound, Sheikh Zayed</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>Giza</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>Dr. Abdelrahman Mohamed Abdo - Speech Specialist</t>
+          <t>Bloom - ABA Center</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>Dr. Abdelrahman Mohamed Abdo</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -1684,24 +1910,29 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>Cairo, Egypt</t>
+          <t>New Cairo, Giza</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>Giza</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>Dr. Lily Taher - Speech &amp; Behavior Modification</t>
+          <t>MM Skin Clinic - Speech Therapy</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>Dr. Lily Taher</t>
+          <t>Dr. Mohamed Mohie</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -1711,24 +1942,29 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>New Cairo, Cairo</t>
+          <t>Mohandessein, Giza</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>Giza</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>Merna Nagy - Speech Therapy (El Nozha)</t>
+          <t>Misr International Hospital (MIH)</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>Merna Nagy (Psychologist)</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -1738,24 +1974,29 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>El Nozha, Cairo</t>
+          <t>Giza Governorate</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>Giza</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>Dr. Amira El-Shennawy - Phoniatrician (Oasis Clinics)</t>
+          <t>Cleopatra October Hospital</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>Dr. Amira El-Shennawy</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -1765,24 +2006,29 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>Oasis Clinics, Cairo</t>
+          <t>October City, Giza</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>Giza</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>Dr. Elmeshmeshy - Consultant Phoniatrician</t>
+          <t>Salsabeel Center for Speech Therapy</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>Dr. Elmeshmeshy</t>
+          <t>Dr. Fatma Dehab</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -1792,24 +2038,29 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>Cairo University Hospitals, Cairo</t>
+          <t>Tanta - Sibr Bay Street, in front General Hospital, Above Mekka Pharmacy, 4th Floor</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>Gharbia</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>Arab Therapy Team</t>
+          <t>Tanta Rehabilitation Center</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Habiba Fawzy</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
@@ -1819,24 +2070,29 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Al-Mahi Street with Abu Bakr Al-Siddiq, Tanta</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>Gharbia</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>AlmaCare Clinic - Mental Health &amp; Speech</t>
+          <t>Meet Assas Center</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>Dr. Wassem Ashraf, Dr. Phoebe Rofail</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
@@ -1846,24 +2102,29 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>Cairo, Egypt</t>
+          <t>Samannoud, Gharbia</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>Gharbia</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>Simplify Egypt - ABA Therapy &amp; Speech</t>
+          <t>ABC ACADEMY Center for Speech Therapy</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Dr. Esraa Mostafa Ibrahim Abou Haty</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
@@ -1873,24 +2134,29 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>Cairo, Egypt</t>
+          <t>Samannoud, Gharbia</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>Gharbia</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>Bloom - ABA Center &amp; Early Intervention</t>
+          <t>Salsabeel Center - El-Mahalla El-Kubra Branch</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Dr. Fatma Dehab</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -1900,24 +2166,29 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>New Cairo, Egypt</t>
+          <t>El-Mahalla El-Kubra - Opposite El-Sharika Roundabout, Dakahlia</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>Dakahlia</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>Momentum for Behavioral Services</t>
+          <t>Amira Samir Saad - Speech Therapy</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Amira Samir Saad</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -1927,100 +2198,120 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>Cairo, Egypt</t>
+          <t>El-Mahalla El-Kubra, Dakahlia</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>Dakahlia</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>Cure Center for Ear and Speech</t>
+          <t>Rehab City First Medical Center</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Prof. Safinaz Naguib Azab</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>01097272841</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>Al Wosta, Cairo, Egypt</t>
+          <t>Clinic 209, Beni Suef</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>Beni Suef</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>MM Skin Clinic - Speech Therapy</t>
+          <t>Fikra Center - Benha Branch</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>Dr. Mohamed Mohie</t>
+          <t>Dr. Muhammad Fayez Al-Deeb</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>01009007290</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>Mohandessein, Giza, Egypt</t>
+          <t>End of Farghali Street, Benha</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>Qalyubiya</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>CliniDo Platform (Online Directory)</t>
+          <t>Fikra Center - Mit Al-Sabaa Branch</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Dr. Muhammad Fayez Al-Deeb</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>01009007290</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>Egypt-wide directory</t>
+          <t>Main Street, Inside KidZania Academy, Mit Al-Sabaa</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>Qalyubiya</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>Vezeeta (53+ Phoniatricians listed)</t>
+          <t>Step by Step Academy - Port Said</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
@@ -2035,19 +2326,24 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>Egypt-wide directory</t>
+          <t>Port Said</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>Port Said</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>DoctorUna (Egypt-wide Directory)</t>
+          <t>Speech Therapy Services - Luxor</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
@@ -2062,19 +2358,24 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>Egypt-wide directory</t>
+          <t>Luxor (Available through Vezeeta/CliniDo)</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>Luxor</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>Medicawy (Appointment Booking Platform)</t>
+          <t>CliniDo Platform</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -2089,19 +2390,24 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>Egypt-wide directory</t>
+          <t>Egypt-wide online directory</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>Egypt-wide</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>MEDOC (Medical Directory &amp; Booking)</t>
+          <t>Vezeeta.com - 53+ Phoniatricians</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -2111,24 +2417,29 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>+201206756667</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>The Greek Campus, Mall of Arabia, 6th of October, Giza</t>
+          <t>Egypt-wide online directory</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>Egypt-wide</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>MyMeditravel (Medical Tourism Directory)</t>
+          <t>DoctorUna</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -2143,19 +2454,24 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>Egypt-wide directory</t>
+          <t>Egypt-wide online directory</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>Egypt-wide</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>Dalili Medical (26+ Doctors in Cairo listed)</t>
+          <t>Medicawy</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -2170,19 +2486,24 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>Egypt-wide directory</t>
+          <t>Egypt-wide online directory</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>Egypt-wide</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>Re3aya247 (28 Speech Therapy Doctors)</t>
+          <t>MEDOC</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -2192,17 +2513,118 @@
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>+201206756667</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>Egypt-wide directory</t>
+          <t>The Greek Campus, Mall of Arabia, 6th of October, Giza</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
           <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>Egypt-wide</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>MyMeditravel</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>Egypt-wide online directory</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>Egypt-wide</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>Dalili Medical</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>Egypt-wide online directory</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>Egypt-wide</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>Re3aya247</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>Egypt-wide online directory</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>Egypt-wide</t>
         </is>
       </c>
     </row>

--- a/Speech_Therapy_Centers_Egypt.xlsx
+++ b/Speech_Therapy_Centers_Egypt.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Speech Therapy Centers Egypt" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Summary &amp; Important Info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Speech Therapy Centers" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,18 +30,8 @@
       <color rgb="00FFFFFF"/>
       <sz val="10"/>
     </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="11"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -53,12 +42,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="001F4E78"/>
         <bgColor rgb="001F4E78"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
       </patternFill>
     </fill>
   </fills>
@@ -80,21 +63,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -462,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,13 +444,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="42" customWidth="1" min="1" max="1"/>
-    <col width="32" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
-    <col width="26" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
-    <col width="28" customWidth="1" min="7" max="7"/>
+    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="38" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -487,30 +463,40 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Owner/Contact</t>
+          <t>City</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Governorate</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Owner/Contact Person</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Phone Number</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Address</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Governorate</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -524,91 +510,111 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>د/وفاء وافى</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>مصر الجديدة, القاهرة</t>
+          <t>Dr. Wafaa Wafi</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>+20 11 43333054</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>Cairo</t>
+          <t>6 Abd El-Aziz Khaleel, Cairo</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Learning Disabilities</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>مركز Speak للتخاطب</t>
+          <t>مركز تخاطب بذور الذكاء بالزيتون</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Zeitoun</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Cairo</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>+20 10 69695539</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>Cairo</t>
+          <t>63 Salim Al Awal, El-Zaytoun, Cairo</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>salmasalah14sa@gmail.com</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>مركز تخاطب المرح</t>
+          <t>مركز Speak للتخاطب</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Nasr City</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>شبرا مصر، قسم روض الفرج، القاهرة</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -618,71 +624,91 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>Cairo</t>
+          <t>Zahra Madinat Nasr, Stage 1, Building 80, Cairo</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>Special Egypt</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>مركز هليوبوليس للتخاطب وتنمية المهارات</t>
+          <t>مركز رعاية الطفل</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Nasr City</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>28 ش محمد عبيد من ش النزهة، مصر الجديدة، القاهرة</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>+20 10 94095966</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>Cairo</t>
+          <t>Madinat Nasr, Cairo</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>Special Egypt</t>
+          <t>childcarecenter4pediatric@gmail.com</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Child Care</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>المركز المصري الكندي - فرع النزهة</t>
+          <t>مركز تخاطب المرح</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Shubra</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14 ش جمال الدين على بجوار ملاهي السندباد، القاهرة</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -692,10 +718,20 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>Cairo</t>
+          <t>14 ش علي أمين عبده، شبرا مصر، روض الفرج</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Child Treatment</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>Special Egypt</t>
         </is>
@@ -704,22 +740,22 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>المركز المصري الكندي - فرع المعادي</t>
+          <t>مركز هليوبوليس للتخاطب وتنمية المهارات</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Heliopolis</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5/3 ش اللاسلكي بجوار شركة غاز مصر، المعادي</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -729,10 +765,20 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>Cairo</t>
+          <t>28 ش محمد عبيد، مصر الجديدة</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Skills Development</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>Special Egypt</t>
         </is>
@@ -741,59 +787,69 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>مركز فيوتشر لتنمية المهارات والتخاطب</t>
+          <t>المركز المصري الكندي - فرع النزهة</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>El-Nuzha</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>03-9617939, 01288929078</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>أبو يوسف أمام مسجد الرحمن، العجمي، الإسكندرية</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>hodakhaial@yahoo.com</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>14 ش جمال الدين على، ملاهي السندباد</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>Search Results</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Rehabilitation</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>Special Egypt</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>مركز نهى رسلان لتدريب النطق والكلام</t>
+          <t>المركز المصري الكندي - فرع المعادي</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>نهى رسلان</t>
+          <t>Maadi</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>الإسكندرية</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -803,34 +859,44 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>5/3 ش اللاسلكي، المعادي</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Rehabilitation</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>Special Egypt</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Semouha Speech Pathology Center</t>
+          <t>مركز هووب</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Al-Haram</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>302 El Qodah Division, Nouran Tower, Floor 1, Semouha</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -840,84 +906,114 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Al-Haram, Cairo</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>Yellow Pages</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Hero Center Speech Therapy</t>
+          <t>مركز فيوتشر لتنمية المهارات والتخاطب</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6 Houda St., Loran, Alexandria</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>03-9617939, 01288929078</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>أبو يوسف أمام مسجد الرحمن، العجمي، الإسكندرية</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>Yellow Pages</t>
+          <t>hodakhaial@yahoo.com</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Skills Development</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>مركز التدخل المبكر</t>
+          <t>مركز نهى رسلان لتدريب النطق والكلام</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>Noha Raslan</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>Alexandria</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>Alexandria</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
@@ -926,22 +1022,22 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>Salsabeel Center for Speech Therapy &amp; Family Counseling</t>
+          <t>مركز الندي للتخاطب وتعديل السلوك</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Dr. Fatma Dehab</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Tanta - Sibr Bay Street, in front General Hospital, Above Mekka Pharmacy, 4th Floor</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -951,34 +1047,44 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Gharbia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Previous Search</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Behavior Modification</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Tanta Rehabilitation Center</t>
+          <t>مركز كُريّم لتنمية المهارات الحياتية والتخاطب</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Habiba Fawzy</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Al-Mahi Street with Abu Bakr Al-Siddiq, Tanta</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -988,34 +1094,44 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>Gharbia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>Previous Search</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Life Skills</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Optimism Centers (مراكز تفاؤل) للتخاطب</t>
+          <t>مركز وعي للدعم النفسي وتنميه المهارات و التخاطب</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Tanta, Gharbia</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1025,34 +1141,44 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>Gharbia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Search Results</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Psychological Support</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>أكاديمية المعرفة للتخاطب</t>
+          <t>مركز التدخل المبكر</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>د. شيرين محمد طه</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Tanta, Gharbia</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1062,34 +1188,44 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>Gharbia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Search Results</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Early Intervention</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>المركز التخصصي للأنف والأذن والحنجرة</t>
+          <t>Semouha Speech Pathology Center</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Semouha</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Tanta, Gharbia</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1099,34 +1235,44 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>Gharbia</t>
+          <t>302 El Qodah Division, Nouran Tower, Semouha</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Search Results</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>Speech Pathology</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>Yellow Pages</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>المركز العالمى للعلاج الطبيعى والتخاطب</t>
+          <t>Hero Center Speech Therapy</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Loran</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Tanta, Gharbia</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1136,34 +1282,44 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>Gharbia</t>
+          <t>6 Houda St., Loran, Alexandria</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>Search Results</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>Yellow Pages</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>Meet Assas Center</t>
+          <t>مركز أيادى للتخاطب</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Samannoud, Gharbia</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1173,34 +1329,44 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>Gharbia</t>
+          <t>6 Abdel Aziz Fahmy Street</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>Previous Search</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Hearing Programs</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>Directory</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>ABC ACADEMY Center for Speech Therapy</t>
+          <t>Salsabeel Center for Speech Therapy &amp; Family Counseling</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Dr. Esraa Mostafa Ibrahim Abou Haty</t>
+          <t>Tanta</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Gharbia</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Samannoud, Gharbia</t>
+          <t>Dr. Fatma Dehab</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1210,34 +1376,44 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>Gharbia</t>
+          <t>Sibr Bay Street, Tanta, in front General Hospital, 4th Floor</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>Previous Search</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Family Counseling</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>Previous</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>Amira Samir Saad - Speech Therapy</t>
+          <t>Tanta Rehabilitation Center</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Amira Samir Saad</t>
+          <t>Tanta</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Gharbia</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>El-Mahalla El-Kubra, Dakahlia</t>
+          <t>Habiba Fawzy</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1247,34 +1423,44 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>Dakahlia</t>
+          <t>Al-Mahi Street with Abu Bakr Al-Siddiq, Tanta</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Previous Search</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Rehabilitation</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>Previous</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>Rehab City First Medical Center</t>
+          <t>Optimism Centers (مراكز تفاؤل) للتخاطب</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Prof. Safinaz Naguib Azab</t>
+          <t>Tanta</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>01097272841</t>
+          <t>Gharbia</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Clinic 209, Beni Suef</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1284,330 +1470,420 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>Beni Suef</t>
+          <t>Tanta, Gharbia</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>Previous Search</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>Egypt Yellow Pages - Complete Directory</t>
+          <t>أكاديمية المعرفة للتخاطب</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Directory Database</t>
+          <t>Tanta</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>Gharbia</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>https://yellowpages.com.eg/ar/category/اطباء-امراض-سمع-وتخاطب</t>
+          <t>Dr. Shirin Muhammad Taha</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Directory</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>Egypt-wide</t>
+          <t>Tanta, Gharbia</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>MAJOR: 168 centers</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Child Rehabilitation</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>Vezeeta.com - 58+ Speech Doctors</t>
+          <t>المركز التخصصي للأنف والأذن والحنجرة</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Booking Platform</t>
+          <t>Tanta</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>Gharbia</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>https://www.vezeeta.com/ar/دكتور/نطق-وتخاطب/مصر</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Directory</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>Egypt-wide</t>
+          <t>Tanta, Gharbia</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>MAJOR: 58+ doctors</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, ENT</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>Dalili Medical - Speech Therapy Directory</t>
+          <t>المركز العالمى للعلاج الطبيعى والتخاطب</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Medical Directory</t>
+          <t>Tanta</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>Gharbia</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>https://www.dalilimedical.com/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Directory</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>Egypt-wide</t>
+          <t>Tanta, Gharbia</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>MAJOR: 26+ in Cairo, 19 in Tanta</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Physical Therapy</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>CliniDo - Phoniatrics Booking Platform</t>
+          <t>مركز ابتسم للتخاطب وتنمية المهارات</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Booking Platform</t>
+          <t>Benha</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>Qalyubiya</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>https://clinido.com/ar/search/نطق-وتخاطب/كل-المناطق/كل-المناطق</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Directory</t>
+          <t>+20 10 07122652</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>Egypt-wide</t>
+          <t>Benha</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>MAJOR: Multi-city listings</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Skills Development</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>DoctorUna Medical Directory</t>
+          <t>Kayan Center for Speech Training</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Medical Directory</t>
+          <t>Zagazig</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>Sharqia</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>https://eg.doctoruna.com/</t>
+          <t>Dr. Muhammad Fareed Al-Ghazawi</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Directory</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>Egypt-wide</t>
+          <t>Zagazig, Sharqia</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>MAJOR: Speech therapists nationwide</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Training</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>Nosaed.com - 31 Speech Centers</t>
+          <t>مركز براعم</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Special Needs Directory</t>
+          <t>Ismailia</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>Ismailia</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>https://www.nosaed.com/</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Directory</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>Egypt-wide</t>
+          <t>Ismailia, Egypt</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>MAJOR: 31 specialized centers</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Skill Development</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>Special Egypt - Cairo Centers List</t>
+          <t>مركز جومانا</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Medical Directory</t>
+          <t>Ismailia</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>Ismailia</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>https://www.specialegypt.com/2020/12/speech-centers-in-cairo.html</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>Directory</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>Cairo/Giza/Qalyubiya</t>
+          <t>Zahour district, Sheikh Zayed, Ismailia</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>MAJOR: Greater Cairo list</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>InfoEG - Comprehensive Local Directory</t>
+          <t>Dr. Radwa Khaled</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Local Business Directory</t>
+          <t>Beni Suef</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>Beni Suef</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>https://infoeg.com/</t>
+          <t>Dr. Radwa Khaled</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Directory</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>Egypt-wide</t>
+          <t>Abdel Salam Aref Street, Beni Suef</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Multiple governorates</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Learning Disabilities</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>MEDOC - Medical Directory &amp; Booking</t>
+          <t>Care Academy (اكاديمية كير)</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Booking Platform</t>
+          <t>Beni Suef</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>+201206756667</t>
+          <t>Beni Suef</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>The Greek Campus, Mall of Arabia, 6th of October, Giza</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -1617,388 +1893,210 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>Egypt-wide</t>
+          <t>Beni Suef</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>MAJOR: Nationwide listings</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Autism, Special Needs</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>UAE-Funded Speech Therapy Centers Network</t>
+          <t>Al-Mustaqbal Center (مركز المستقبل)</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>ZHO (Zayed Higher Organisation)</t>
+          <t>Beni Suef</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>Beni Suef</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>10 centers across 6 Egyptian governorates</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Partnership with Ministry of Youth</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>Egypt-wide</t>
+          <t>Beni Suef</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>Government: 10 new centers</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="90" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>COMPREHENSIVE SPEECH THERAPY CENTERS IN EGYPT - RESEARCH SUMMARY</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr"/>
-      <c r="B2" s="4" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>KEY FINDINGS:</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>Total Centers Found in Directories</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>168 (Egypt Yellow Pages)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>Doctors Listed on Vezeeta</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>58+</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Doctors Listed on Dalili Medical</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>26+ (Cairo), 19 (Tanta)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>Centers Listed on Nosaed.com</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>UAE-Funded New Centers</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>10 (across 6 governorates)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr"/>
-      <c r="B9" s="4" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>MAJOR DIRECTORIES TO ACCESS COMPLETE LISTS:</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>1. Egypt Yellow Pages</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>https://yellowpages.com.eg/ar/category/اطباء-امراض-سمع-وتخاطب</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>2. Vezeeta.com</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>https://www.vezeeta.com/ar/دكتور/نطق-وتخاطب/مصر</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>3. Dalili Medical</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>https://www.dalilimedical.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>4. CliniDo</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>https://clinido.com/ar/search/نطق-وتخاطب/كل-المناطق/كل-المناطق</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>5. DoctorUna</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>https://eg.doctoruna.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>6. Nosaed.com</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>https://www.nosaed.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>7. Special Egypt (Greater Cairo List)</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>https://www.specialegypt.com/2020/12/speech-centers-in-cairo.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>8. InfoEG Directory</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>https://infoeg.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="inlineStr">
-        <is>
-          <t>9. MEDOC</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>https://medoc.care/</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="inlineStr"/>
-      <c r="B20" s="4" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>GOVERNORATES WITH MOST CENTERS:</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t>Cairo</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>31+ (on Vezeeta), Plus many more on Yellow Pages</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="inlineStr">
-        <is>
-          <t>Giza</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>40 (Egypt Yellow Pages)</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="inlineStr">
-        <is>
-          <t>Alexandria</t>
-        </is>
-      </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>19 (Egypt Yellow Pages)</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="inlineStr">
-        <is>
-          <t>Gharbia (Tanta)</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>19 (Dalili Medical) - User found 14 on Google Maps</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="inlineStr">
-        <is>
-          <t>Dakahlia, Beni Suef, Qalyubiya, etc.</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>Available through Yellow Pages &amp; other directories</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="4" t="inlineStr"/>
-      <c r="B27" s="4" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="inlineStr">
-        <is>
-          <t>IMPORTANT NOTE:</t>
-        </is>
-      </c>
-      <c r="B28" s="4" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="4" t="inlineStr">
-        <is>
-          <t>The comprehensive lists are available on the directories listed above.</t>
-        </is>
-      </c>
-      <c r="B29" s="4" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="inlineStr">
-        <is>
-          <t>To find ALL centers in a specific city/governorate:</t>
-        </is>
-      </c>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>Use Google Maps search OR visit Yellow Pages directly</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="inlineStr">
-        <is>
-          <t>Recommended search terms:</t>
-        </is>
-      </c>
-      <c r="B31" s="4" t="inlineStr">
-        <is>
-          <t>"مركز تخاطب" OR "عيادة تخاطب" on Google Maps or Yellow Pages</t>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Skill Development</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>كن معي</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Minya</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>Minya</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>Minya, Egypt</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Skill Development</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>مركز الإحسان</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>Luxor, Egypt</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Brain Mapping, Nerve Tests</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Amira Samir Saad - Speech Therapy</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>El-Mahalla</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Dakahlia</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>Amira Samir Saad</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>El-Mahalla El-Kubra, Dakahlia</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Behavior Modification</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>Previous</t>
         </is>
       </c>
     </row>

--- a/Speech_Therapy_Centers_Egypt.xlsx
+++ b/Speech_Therapy_Centers_Egypt.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Speech Therapy Centers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Summary &amp; Directories" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,6 +30,11 @@
       <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
@@ -63,12 +69,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -436,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +461,7 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="22" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="38" customWidth="1" min="6" max="6"/>
+    <col width="40" customWidth="1" min="6" max="6"/>
     <col width="24" customWidth="1" min="7" max="7"/>
     <col width="30" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
@@ -473,7 +485,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Owner/Contact Person</t>
+          <t>Owner/Contact</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -718,7 +730,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14 ش علي أمين عبده، شبرا مصر، روض الفرج</t>
+          <t>14 ش علي أمين عبده، مترو مسرة، شبرا مصر</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -928,17 +940,17 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>مركز فيوتشر لتنمية المهارات والتخاطب</t>
+          <t>معهد السمع والكلام بإمبابة</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Imbaba</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -948,22 +960,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>03-9617939, 01288929078</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>أبو يوسف أمام مسجد الرحمن، العجمي، الإسكندرية</t>
+          <t>1 Sharia Al-Tayyar Fikry, Imbaba, بجوار مستشفى الحميات</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>hodakhaial@yahoo.com</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Skills Development</t>
+          <t>Speech Therapy, Hearing</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -975,22 +987,22 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>مركز نهى رسلان لتدريب النطق والكلام</t>
+          <t>مركز تخاطب البر والتقوى</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Sarayat Al-Qubba</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Noha Raslan</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1000,7 +1012,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>104 Al-Awqaf Tower, Sharia Ibn Sander, Sarayat Al-Qubba</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1015,24 +1027,24 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>مركز الندي للتخاطب وتعديل السلوك</t>
+          <t>مركز كيور</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Maadi</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1047,7 +1059,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Sharia Al-Nasr, Al-Wireless intersection, Al-Maadi</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1057,29 +1069,29 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Behavior Modification</t>
+          <t>Speech Therapy, Ear Surgery</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>مركز كُريّم لتنمية المهارات الحياتية والتخاطب</t>
+          <t>مركز الزهراء للتخاطب</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Nasr City</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1094,7 +1106,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>5 Sharia Al-Sawwaf, 10th District, Nasr City</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1104,34 +1116,34 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Life Skills</t>
+          <t>Speech Therapy</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>مركز وعي للدعم النفسي وتنميه المهارات و التخاطب</t>
+          <t>دكتور أحمد على - استشارى أمراض تخاطب</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Dr. Ahmed Ali</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1141,7 +1153,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1151,7 +1163,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Psychological Support</t>
+          <t>Speech Pathology</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1163,7 +1175,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>مركز التدخل المبكر</t>
+          <t>مركز فيوتشر لتنمية المهارات والتخاطب</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1183,39 +1195,39 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>03-9617939, 01288929078</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>أبو يوسف أمام مسجد الرحمن، العجمي، الإسكندرية</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>hodakhaial@yahoo.com</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Early Intervention</t>
+          <t>Speech Therapy, Skills Development</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>Semouha Speech Pathology Center</t>
+          <t>مركز نهى رسلان لتدريب النطق والكلام</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Semouha</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -1225,7 +1237,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Noha Raslan</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1235,7 +1247,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>302 El Qodah Division, Nouran Tower, Semouha</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1245,24 +1257,24 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>Speech Pathology</t>
+          <t>Speech Therapy</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Yellow Pages</t>
+          <t>Facebook</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>Hero Center Speech Therapy</t>
+          <t>مركز الندي للتخاطب وتعديل السلوك</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Loran</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -1282,7 +1294,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6 Houda St., Loran, Alexandria</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1292,19 +1304,19 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy</t>
+          <t>Speech Therapy, Behavior Modification</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Yellow Pages</t>
+          <t>Facebook</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>مركز أيادى للتخاطب</t>
+          <t>مركز كُريّم لتنمية المهارات الحياتية والتخاطب</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1329,7 +1341,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6 Abdel Aziz Fahmy Street</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1339,34 +1351,34 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Hearing Programs</t>
+          <t>Speech Therapy, Life Skills</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>Directory</t>
+          <t>Facebook</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Salsabeel Center for Speech Therapy &amp; Family Counseling</t>
+          <t>مركز وعي للدعم النفسي وتنميه المهارات و التخاطب</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Tanta</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Gharbia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Dr. Fatma Dehab</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1376,7 +1388,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>Sibr Bay Street, Tanta, in front General Hospital, 4th Floor</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1386,34 +1398,34 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Family Counseling</t>
+          <t>Speech Therapy, Psychological Support</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>Previous</t>
+          <t>Facebook</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>Tanta Rehabilitation Center</t>
+          <t>مركز التدخل المبكر</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Tanta</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Gharbia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Habiba Fawzy</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1423,7 +1435,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>Al-Mahi Street with Abu Bakr Al-Siddiq, Tanta</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1433,29 +1445,29 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Rehabilitation</t>
+          <t>Speech Therapy, Early Intervention</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>Previous</t>
+          <t>Facebook</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>Optimism Centers (مراكز تفاؤل) للتخاطب</t>
+          <t>Semouha Speech Pathology Center</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Tanta</t>
+          <t>Semouha</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Gharbia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -1470,7 +1482,7 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>Tanta, Gharbia</t>
+          <t>302 El Qodah Division, Nouran Tower, Semouha</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1480,34 +1492,34 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy</t>
+          <t>Speech Pathology</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Search</t>
+          <t>Yellow Pages</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>أكاديمية المعرفة للتخاطب</t>
+          <t>Hero Center Speech Therapy</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Tanta</t>
+          <t>Loran</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Gharbia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Dr. Shirin Muhammad Taha</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1517,7 +1529,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>Tanta, Gharbia</t>
+          <t>6 Houda St., Loran, Alexandria</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1527,29 +1539,29 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Child Rehabilitation</t>
+          <t>Speech Therapy</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>Search</t>
+          <t>Yellow Pages</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>المركز التخصصي للأنف والأذن والحنجرة</t>
+          <t>مركز أيادى للتخاطب</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Tanta</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Gharbia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -1564,7 +1576,7 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>Tanta, Gharbia</t>
+          <t>6 Abdel Aziz Fahmy Street</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -1574,19 +1586,19 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, ENT</t>
+          <t>Speech Therapy, Hearing Programs</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>Search</t>
+          <t>Directory</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>المركز العالمى للعلاج الطبيعى والتخاطب</t>
+          <t>Salsabeel Center for Speech Therapy &amp; Family Counseling</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1601,7 +1613,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Dr. Fatma Dehab</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1611,7 +1623,7 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>Tanta, Gharbia</t>
+          <t>Sibr Bay Street, Tanta, in front General Hospital, 4th Floor</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -1621,44 +1633,44 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Physical Therapy</t>
+          <t>Speech Therapy, Family Counseling</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>Search</t>
+          <t>Previous</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>مركز ابتسم للتخاطب وتنمية المهارات</t>
+          <t>Tanta Rehabilitation Center</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Benha</t>
+          <t>Tanta</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Qalyubiya</t>
+          <t>Gharbia</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Habiba Fawzy</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>+20 10 07122652</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>Benha</t>
+          <t>Al-Mahi Street with Abu Bakr Al-Siddiq, Tanta</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -1668,34 +1680,34 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Skills Development</t>
+          <t>Speech Therapy, Rehabilitation</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>Search</t>
+          <t>Previous</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>Kayan Center for Speech Training</t>
+          <t>Optimism Centers (مراكز تفاؤل) للتخاطب</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Zagazig</t>
+          <t>Tanta</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Sharqia</t>
+          <t>Gharbia</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Dr. Muhammad Fareed Al-Ghazawi</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1705,7 +1717,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>Zagazig, Sharqia</t>
+          <t>Tanta, Gharbia</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -1715,7 +1727,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Training</t>
+          <t>Speech Therapy</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1727,22 +1739,22 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>مركز براعم</t>
+          <t>أكاديمية المعرفة للتخاطب</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Ismailia</t>
+          <t>Tanta</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Ismailia</t>
+          <t>Gharbia</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Dr. Shirin Muhammad Taha</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
@@ -1752,7 +1764,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>Ismailia, Egypt</t>
+          <t>Tanta, Gharbia</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -1762,29 +1774,29 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Skill Development</t>
+          <t>Speech Therapy, Child Rehabilitation</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>مركز جومانا</t>
+          <t>المركز التخصصي للأنف والأذن والحنجرة</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Ismailia</t>
+          <t>Tanta</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Ismailia</t>
+          <t>Gharbia</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
@@ -1799,7 +1811,7 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>Zahour district, Sheikh Zayed, Ismailia</t>
+          <t>Tanta, Gharbia</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -1809,7 +1821,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy</t>
+          <t>Speech Therapy, ENT</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -1821,22 +1833,22 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>Dr. Radwa Khaled</t>
+          <t>المركز العالمى للعلاج الطبيعى والتخاطب</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Beni Suef</t>
+          <t>Tanta</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Beni Suef</t>
+          <t>Gharbia</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Dr. Radwa Khaled</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -1846,7 +1858,7 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>Abdel Salam Aref Street, Beni Suef</t>
+          <t>Tanta, Gharbia</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -1856,7 +1868,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Learning Disabilities</t>
+          <t>Speech Therapy, Physical Therapy</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -1868,17 +1880,17 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>Care Academy (اكاديمية كير)</t>
+          <t>مركز ابتسم للتخاطب وتنمية المهارات</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Beni Suef</t>
+          <t>Benha</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Beni Suef</t>
+          <t>Qalyubiya</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
@@ -1888,12 +1900,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>+20 10 07122652</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>Beni Suef</t>
+          <t>Benha</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -1903,34 +1915,34 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Autism, Special Needs</t>
+          <t>Speech Therapy, Skills Development</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>Al-Mustaqbal Center (مركز المستقبل)</t>
+          <t>Kayan Center for Speech Training</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Beni Suef</t>
+          <t>Zagazig</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Beni Suef</t>
+          <t>Sharqia</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Dr. Muhammad Fareed Al-Ghazawi</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
@@ -1940,7 +1952,7 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>Beni Suef</t>
+          <t>Zagazig, Sharqia</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -1950,29 +1962,29 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Skill Development</t>
+          <t>Speech Therapy, Training</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>كن معي</t>
+          <t>مركز براعم</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Minya</t>
+          <t>Ismailia</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Minya</t>
+          <t>Ismailia</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
@@ -1987,7 +1999,7 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>Minya, Egypt</t>
+          <t>Ismailia, Egypt</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -2009,17 +2021,17 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>مركز الإحسان</t>
+          <t>مركز جومانا</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Luxor</t>
+          <t>Ismailia</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>Luxor</t>
+          <t>Ismailia</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
@@ -2034,7 +2046,7 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>Luxor, Egypt</t>
+          <t>Zahour district, Sheikh Zayed, Ismailia</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -2044,59 +2056,579 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Brain Mapping, Nerve Tests</t>
+          <t>Speech Therapy</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
+          <t>Dr. Radwa Khaled</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Beni Suef</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Beni Suef</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Radwa Khaled</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>Abdel Salam Aref Street, Beni Suef</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Learning Disabilities</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Care Academy (اكاديمية كير)</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Beni Suef</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>Beni Suef</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>Beni Suef</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Autism, Special Needs</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>Al-Mustaqbal Center (مركز المستقبل)</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>Beni Suef</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>Beni Suef</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>Beni Suef</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Skill Development</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>كن معي</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Minya</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>Minya</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>Minya, Egypt</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Skill Development</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>مركز الإحسان</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>Luxor, Egypt</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Brain Mapping, Nerve Tests</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
           <t>Amira Samir Saad - Speech Therapy</t>
         </is>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>El-Mahalla</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>Dakahlia</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr">
+      <c r="D40" s="2" t="inlineStr">
         <is>
           <t>Amira Samir Saad</t>
         </is>
       </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
         <is>
           <t>El-Mahalla El-Kubra, Dakahlia</t>
         </is>
       </c>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
         <is>
           <t>Speech Therapy, Behavior Modification</t>
         </is>
       </c>
-      <c r="I35" s="2" t="inlineStr">
+      <c r="I40" s="2" t="inlineStr">
         <is>
           <t>Previous</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>COMPREHENSIVE SPEECH THERAPY CENTERS IN EGYPT - UPDATED</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr"/>
+      <c r="B2" s="4" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>RESEARCH SUMMARY</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>Total Specific Centers Found &amp; Documented</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr"/>
+      <c r="B5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>GOVERNORATES COVERED</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Alexandria:</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Beni Suef:</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Cairo:</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Dakahlia:</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Gharbia:</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Ismailia:</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Luxor:</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Minya:</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Qalyubiya:</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Sharqia:</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr"/>
+      <c r="B17" s="4" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>MAJOR DIRECTORIES WITH COMPREHENSIVE LISTS</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>Egypt Yellow Pages</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>https://yellowpages.com.eg/ (168+ centers)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>Special Egypt</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>https://www.specialegypt.com/2020/12/speech-centers-in-cairo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>Vezeeta</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>https://www.vezeeta.com/ar/دكتور/نطق-وتخاطب/مصر (58+ doctors)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>Dalili Medical</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>https://www.dalilimedical.com/ (26+ Cairo, 19+ Tanta)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>CliniDo</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>https://clinido.com/ar/search/نطق-وتخاطب/كل-المناطق/كل-المناطق</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>DoctorUna</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>https://eg.doctoruna.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>Nosaed.com</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>https://www.nosaed.com/ (31 specialized centers)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>Ekshef</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>https://ekshef.com/دكتور/نطق-وتخاطب/مصر (56+ doctors)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>InfoEG</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>https://infoeg.com/ (Local directories)</t>
         </is>
       </c>
     </row>

--- a/Speech_Therapy_Centers_Egypt.xlsx
+++ b/Speech_Therapy_Centers_Egypt.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Speech Therapy Centers" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Summary &amp; Directories" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Summary &amp; Info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="22" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
     <col width="40" customWidth="1" min="6" max="6"/>
     <col width="24" customWidth="1" min="7" max="7"/>
     <col width="30" customWidth="1" min="8" max="8"/>
@@ -740,12 +740,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Child Treatment</t>
+          <t>Speech Therapy</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>Special Egypt</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
@@ -792,7 +792,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>Special Egypt</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>Special Egypt</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>Special Egypt</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1 Sharia Al-Tayyar Fikry, Imbaba, بجوار مستشفى الحميات</t>
+          <t>1 Sharia Al-Tayyar Fikry, Imbaba</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>104 Al-Awqaf Tower, Sharia Ibn Sander, Sarayat Al-Qubba</t>
+          <t>104 Al-Awqaf Tower, Ibn Sander, Sarayat Al-Qubba</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1175,17 +1175,17 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>مركز فيوتشر لتنمية المهارات والتخاطب</t>
+          <t>GSC - المركز الذهبي التخصصي</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Nasr City</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1195,22 +1195,22 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>03-9617939, 01288929078</t>
+          <t>+20 1011230481, 01102626909</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>أبو يوسف أمام مسجد الرحمن، العجمي، الإسكندرية</t>
+          <t>33 Sharia Al-Khalifa Al-Amir, Abbas El-Akkad, Nasr City</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>hodakhaial@yahoo.com</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Skills Development</t>
+          <t>Speech Therapy, Autism, Behavior Modification</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1222,32 +1222,32 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>مركز نهى رسلان لتدريب النطق والكلام</t>
+          <t>بيت التمريض - Nursing House</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Noha Raslan</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>201201120500</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cairo - Home-based services</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1257,29 +1257,29 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy</t>
+          <t>Home Speech Therapy, Language Development</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>مركز الندي للتخاطب وتعديل السلوك</t>
+          <t>ENT Clinic Egypt - Sheikh Zayed</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Sheikh Zayed</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Giza</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1289,12 +1289,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>01014198168, 37952600</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>District 16, Mezar Mall, Entrance 3, 2nd Floor, Sheikh Zayed</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1304,29 +1304,29 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Behavior Modification</t>
+          <t>Speech Therapy, ENT, Audiology</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>مركز كُريّم لتنمية المهارات الحياتية والتخاطب</t>
+          <t>ENT Clinic Egypt - Maadi</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Maadi</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1336,12 +1336,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>01061988484, 25162676</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Zahraa Maadi Main Street, Elite Tower, Clinic 17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1351,29 +1351,29 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Life Skills</t>
+          <t>Speech Therapy, ENT, Audiology</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>مركز وعي للدعم النفسي وتنميه المهارات و التخاطب</t>
+          <t>ENT Clinic Egypt - Engineers</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Giza</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Giza</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1383,12 +1383,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>37628742, 37628804, 01011840058</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>56 Syria Street, Engineers, Giza</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1398,29 +1398,29 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Psychological Support</t>
+          <t>Speech Therapy, ENT, Audiology</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>مركز التدخل المبكر</t>
+          <t>ENT Clinic Egypt - Fifth Settlement</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>New Cairo</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Giza</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>25603510, 25603503, 01015336667</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>1st District, 4th Area, Street 36, Medical Center Mall</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1445,29 +1445,29 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Early Intervention</t>
+          <t>Speech Therapy, ENT, Audiology</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>Semouha Speech Pathology Center</t>
+          <t>مركز تأهيل و تدريب الأطفال ITC</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Semouha</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>302 El Qodah Division, Nouran Tower, Semouha</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1492,24 +1492,24 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>Speech Pathology</t>
+          <t>Child Rehabilitation, Training</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Yellow Pages</t>
+          <t>Facebook</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>Hero Center Speech Therapy</t>
+          <t>مركز فيوتشر لتنمية المهارات والتخاطب</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Loran</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -1524,34 +1524,34 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>03-9617939, 01288929078</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>6 Houda St., Loran, Alexandria</t>
+          <t>أبو يوسف أمام مسجد الرحمن، العجمي</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>hodakhaial@yahoo.com</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy</t>
+          <t>Speech Therapy, Skills Development</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>Yellow Pages</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>مركز أيادى للتخاطب</t>
+          <t>مركز نهى رسلان لتدريب النطق والكلام</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Noha Raslan</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>6 Abdel Aziz Fahmy Street</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -1586,34 +1586,34 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Hearing Programs</t>
+          <t>Speech Therapy</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>Directory</t>
+          <t>Facebook</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>Salsabeel Center for Speech Therapy &amp; Family Counseling</t>
+          <t>مركز الندي للتخاطب وتعديل السلوك</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Tanta</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Gharbia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Dr. Fatma Dehab</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>Sibr Bay Street, Tanta, in front General Hospital, 4th Floor</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -1633,34 +1633,34 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Family Counseling</t>
+          <t>Speech Therapy, Behavior Modification</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>Previous</t>
+          <t>Facebook</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>Tanta Rehabilitation Center</t>
+          <t>مركز كُريّم لتنمية المهارات الحياتية والتخاطب</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Tanta</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Gharbia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Habiba Fawzy</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>Al-Mahi Street with Abu Bakr Al-Siddiq, Tanta</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -1680,29 +1680,29 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Rehabilitation</t>
+          <t>Speech Therapy, Life Skills</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>Previous</t>
+          <t>Facebook</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>Optimism Centers (مراكز تفاؤل) للتخاطب</t>
+          <t>مركز وعي للدعم النفسي وتنميه المهارات و التخاطب</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Tanta</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Gharbia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>Tanta, Gharbia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -1727,34 +1727,34 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy</t>
+          <t>Speech Therapy, Psychological Support</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>Search</t>
+          <t>Facebook</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>أكاديمية المعرفة للتخاطب</t>
+          <t>مركز التدخل المبكر</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Tanta</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Gharbia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Dr. Shirin Muhammad Taha</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>Tanta, Gharbia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -1774,29 +1774,29 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Child Rehabilitation</t>
+          <t>Speech Therapy, Early Intervention</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Search</t>
+          <t>Facebook</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>المركز التخصصي للأنف والأذن والحنجرة</t>
+          <t>Semouha Speech Pathology Center</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Tanta</t>
+          <t>Semouha</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Gharbia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>Tanta, Gharbia</t>
+          <t>302 El Qodah Division, Nouran Tower, Semouha</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, ENT</t>
+          <t>Speech Pathology</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>Search</t>
+          <t>Yellow Pages</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>المركز العالمى للعلاج الطبيعى والتخاطب</t>
+          <t>Hero Center Speech Therapy</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Tanta</t>
+          <t>Loran</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Gharbia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>Tanta, Gharbia</t>
+          <t>6 Houda St., Loran, Alexandria</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -1868,29 +1868,29 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Physical Therapy</t>
+          <t>Speech Therapy</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>Search</t>
+          <t>Yellow Pages</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>مركز ابتسم للتخاطب وتنمية المهارات</t>
+          <t>مركز سموحه للتخاطب و تعديل السلوك</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Benha</t>
+          <t>Semouha</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Qalyubiya</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
@@ -1900,22 +1900,22 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>+20 10 07122652</t>
+          <t>+20 10 07757359</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>Benha</t>
+          <t>1 Noran Tower, Street 302 Taqsim Elqada, Alexandria</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Support@SmouhaCenter.com</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Skills Development</t>
+          <t>Speech Therapy, Behavior Modification</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -1927,22 +1927,22 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>Kayan Center for Speech Training</t>
+          <t>مركز أيادى للتخاطب</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Zagazig</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Sharqia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Dr. Muhammad Fareed Al-Ghazawi</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>Zagazig, Sharqia</t>
+          <t>6 Abdel Aziz Fahmy Street</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -1962,34 +1962,34 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Training</t>
+          <t>Speech Therapy, Hearing Programs</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>Search</t>
+          <t>Directory</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>مركز براعم</t>
+          <t>Salsabeel Center for Speech Therapy</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Ismailia</t>
+          <t>Tanta</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Ismailia</t>
+          <t>Gharbia</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Dr. Fatma Dehab</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>Ismailia, Egypt</t>
+          <t>Sibr Bay Street, Tanta, 4th Floor</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -2009,34 +2009,34 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Skill Development</t>
+          <t>Speech Therapy, Family Counseling</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Previous</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>مركز جومانا</t>
+          <t>Tanta Rehabilitation Center</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Ismailia</t>
+          <t>Tanta</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>Ismailia</t>
+          <t>Gharbia</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Habiba Fawzy</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>Zahour district, Sheikh Zayed, Ismailia</t>
+          <t>Al-Mahi Street, Tanta</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -2056,34 +2056,34 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy</t>
+          <t>Speech Therapy, Rehabilitation</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Search</t>
+          <t>Previous</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>Dr. Radwa Khaled</t>
+          <t>Optimism Centers (مراكز تفاؤل)</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>Beni Suef</t>
+          <t>Tanta</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Beni Suef</t>
+          <t>Gharbia</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Dr. Radwa Khaled</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>Abdel Salam Aref Street, Beni Suef</t>
+          <t>Tanta</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Learning Disabilities</t>
+          <t>Speech Therapy</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2115,22 +2115,22 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>Care Academy (اكاديمية كير)</t>
+          <t>أكاديمية المعرفة للتخاطب</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Beni Suef</t>
+          <t>Tanta</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Beni Suef</t>
+          <t>Gharbia</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Dr. Shirin Muhammad Taha</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>Beni Suef</t>
+          <t>Tanta</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -2150,29 +2150,29 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Autism, Special Needs</t>
+          <t>Speech Therapy, Child Rehabilitation</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>Al-Mustaqbal Center (مركز المستقبل)</t>
+          <t>المركز التخصصي للأنف والأذن والحنجرة</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>Beni Suef</t>
+          <t>Tanta</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Beni Suef</t>
+          <t>Gharbia</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>Beni Suef</t>
+          <t>Tanta</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -2197,29 +2197,29 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Skill Development</t>
+          <t>Speech Therapy, ENT</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>كن معي</t>
+          <t>المركز العالمى للعلاج الطبيعى والتخاطب</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Minya</t>
+          <t>Tanta</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Minya</t>
+          <t>Gharbia</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>Minya, Egypt</t>
+          <t>Tanta</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -2244,29 +2244,29 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Skill Development</t>
+          <t>Speech Therapy, Physical Therapy</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>مركز الإحسان</t>
+          <t>مركز ابتسم للتخاطب وتنمية المهارات</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>Luxor</t>
+          <t>Benha</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Luxor</t>
+          <t>Qalyubiya</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
@@ -2276,12 +2276,12 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>+20 10 07122652</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>Luxor, Egypt</t>
+          <t>Benha</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -2291,57 +2291,433 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Brain Mapping, Nerve Tests</t>
+          <t>Speech Therapy, Skills Development</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
+          <t>Kayan Center for Speech Training</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Zagazig</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>Sharqia</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Muhammad Fareed Al-Ghazawi</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>Zagazig</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Training</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>مركز براعم</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Ismailia</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>Ismailia</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>Ismailia</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Skill Development</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>مركز جومانا</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Ismailia</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>Ismailia</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>Zahour district, Ismailia</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Radwa Khaled</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>Beni Suef</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>Beni Suef</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Radwa Khaled</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>Abdel Salam Aref Street, Beni Suef</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Learning Disabilities</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Care Academy</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Beni Suef</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>Beni Suef</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>Beni Suef</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Autism, Special Needs</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Al-Mustaqbal Center</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Beni Suef</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>Beni Suef</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>Beni Suef</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Skill Development</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>كن معي</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Minya</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>Minya</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>Minya</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Skill Development</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>مركز الإحسان</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Brain Mapping</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
           <t>Amira Samir Saad - Speech Therapy</t>
         </is>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>El-Mahalla</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>Dakahlia</t>
         </is>
       </c>
-      <c r="D40" s="2" t="inlineStr">
+      <c r="D48" s="2" t="inlineStr">
         <is>
           <t>Amira Samir Saad</t>
         </is>
       </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>El-Mahalla El-Kubra, Dakahlia</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>El-Mahalla El-Kubra</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
         <is>
           <t>Speech Therapy, Behavior Modification</t>
         </is>
       </c>
-      <c r="I40" s="2" t="inlineStr">
+      <c r="I48" s="2" t="inlineStr">
         <is>
           <t>Previous</t>
         </is>
@@ -2358,7 +2734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2373,7 +2749,7 @@
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>COMPREHENSIVE SPEECH THERAPY CENTERS IN EGYPT - UPDATED</t>
+          <t>COMPREHENSIVE SPEECH THERAPY CENTERS IN EGYPT</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr"/>
@@ -2383,83 +2759,85 @@
       <c r="B2" s="4" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>RESEARCH SUMMARY</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr"/>
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>TOTAL CENTERS FOUND &amp; DOCUMENTED</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>Total Specific Centers Found &amp; Documented</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>39</v>
-      </c>
+      <c r="A4" s="4" t="inlineStr"/>
+      <c r="B4" s="4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr"/>
-      <c r="B5" s="4" t="inlineStr"/>
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>BREAKDOWN BY GOVERNORATE:</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>GOVERNORATES COVERED</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr"/>
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Alexandria:</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Alexandria:</t>
+          <t xml:space="preserve">  Beni Suef:</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Beni Suef:</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>3</v>
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Cairo:</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Cairo:</t>
+          <t xml:space="preserve">  Dakahlia:</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Dakahlia:</t>
+          <t xml:space="preserve">  Gharbia:</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Gharbia:</t>
+          <t xml:space="preserve">  Giza:</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -2473,22 +2851,22 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Luxor:</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">  Minya:</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2519,7 +2897,7 @@
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>MAJOR DIRECTORIES WITH COMPREHENSIVE LISTS</t>
+          <t>GOVERNMENT RESOURCES:</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr"/>
@@ -2527,108 +2905,108 @@
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>Egypt Yellow Pages</t>
+          <t>Ministry of Youth &amp; Sports Centers</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>https://yellowpages.com.eg/ (168+ centers)</t>
+          <t>99 centers on youth center networks nationwide</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Special Egypt</t>
+          <t>UAE-Funded ZHO Centers</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>https://www.specialegypt.com/2020/12/speech-centers-in-cairo.html</t>
+          <t>10 new centers in 6 governorates (2024)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Vezeeta</t>
+          <t>Government Village Centers</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>https://www.vezeeta.com/ar/دكتور/نطق-وتخاطب/مصر (58+ doctors)</t>
+          <t>68 centers across rural areas nationwide</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t>Dalili Medical</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>https://www.dalilimedical.com/ (26+ Cairo, 19+ Tanta)</t>
-        </is>
-      </c>
+      <c r="A22" s="4" t="inlineStr"/>
+      <c r="B22" s="4" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>CliniDo</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>https://clinido.com/ar/search/نطق-وتخاطب/كل-المناطق/كل-المناطق</t>
-        </is>
-      </c>
+          <t>MAJOR ONLINE DIRECTORIES:</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>DoctorUna</t>
+          <t>Egypt Yellow Pages</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>https://eg.doctoruna.com/</t>
+          <t>https://yellowpages.com.eg/ - 168+ centers total</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Nosaed.com</t>
+          <t>Vezeeta.com</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>https://www.nosaed.com/ (31 specialized centers)</t>
+          <t>https://www.vezeeta.com/ar/دكتور/نطق-وتخاطب/مصر - 58+ doctors</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Ekshef</t>
+          <t>Special Egypt</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>https://ekshef.com/دكتور/نطق-وتخاطب/مصر (56+ doctors)</t>
+          <t>https://www.specialegypt.com/2020/12/speech-centers-in-cairo.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>InfoEG</t>
+          <t>Ekshef</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>https://infoeg.com/ (Local directories)</t>
+          <t>https://ekshef.com/دكتور/نطق-وتخاطب/مصر - 56+ doctors</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>Dalili Medical</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>https://www.dalilimedical.com/ - Comprehensive directory</t>
         </is>
       </c>
     </row>

--- a/Speech_Therapy_Centers_Egypt.xlsx
+++ b/Speech_Therapy_Centers_Egypt.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Speech Therapy Centers" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Summary &amp; Info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="All Speech Therapy Centers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -29,7 +29,7 @@
     <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
-      <sz val="10"/>
+      <sz val="9"/>
     </font>
     <font>
       <b val="1"/>
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,18 +456,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="40" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="40" customWidth="1" min="6" max="6"/>
-    <col width="24" customWidth="1" min="7" max="7"/>
-    <col width="30" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="28" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
+    <row r="1" ht="25" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
@@ -542,7 +542,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>6 Abd El-Aziz Khaleel, Cairo</t>
+          <t>6 Abd El-Aziz Khaleel</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>63 Salim Al Awal, El-Zaytoun, Cairo</t>
+          <t>63 Salim Al Awal, El-Zaytoun</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>Zahra Madinat Nasr, Stage 1, Building 80, Cairo</t>
+          <t>Zahra Madinat Nasr, Stage 1, Building 80</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>Madinat Nasr, Cairo</t>
+          <t>Madinat Nasr</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14 ش جمال الدين على، ملاهي السندباد</t>
+          <t>14 ش جمال الدين على</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>104 Al-Awqaf Tower, Ibn Sander, Sarayat Al-Qubba</t>
+          <t>104 Al-Awqaf Tower, Ibn Sander</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Sharia Al-Nasr, Al-Wireless intersection, Al-Maadi</t>
+          <t>Sharia Al-Nasr, Al-Wireless, Al-Maadi</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>33 Sharia Al-Khalifa Al-Amir, Abbas El-Akkad, Nasr City</t>
+          <t>33 Sharia Al-Khalifa Al-Amir, Abbas El-Akkad</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>Home Speech Therapy, Language Development</t>
+          <t>Home Speech Therapy</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1269,17 +1269,17 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>ENT Clinic Egypt - Sheikh Zayed</t>
+          <t>مركز تأهيل و تدريب الأطفال ITC</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Sheikh Zayed</t>
+          <t>Maadi</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Giza</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1289,12 +1289,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>01014198168, 37952600</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>District 16, Mezar Mall, Entrance 3, 2nd Floor, Sheikh Zayed</t>
+          <t>Tower Badr No. 30, Division Horemheb, New Maadi</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, ENT, Audiology</t>
+          <t>Child Rehabilitation, Training</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1316,12 +1316,12 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>ENT Clinic Egypt - Maadi</t>
+          <t>مركز انسان للتخاطب وتنمية المهارات</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Maadi</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -1336,12 +1336,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>01061988484, 25162676</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>Zahraa Maadi Main Street, Elite Tower, Clinic 17</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, ENT, Audiology</t>
+          <t>Speech Therapy, Skills Development</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1363,17 +1363,17 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>ENT Clinic Egypt - Engineers</t>
+          <t>مؤسسه بسمه وبصمة أمل للتنميه</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Giza</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Giza</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1383,12 +1383,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>37628742, 37628804, 01011840058</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>56 Syria Street, Engineers, Giza</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, ENT, Audiology</t>
+          <t>Speech Therapy, Skills Development</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1410,17 +1410,17 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>ENT Clinic Egypt - Fifth Settlement</t>
+          <t>Skills Academy</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>New Cairo</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Giza</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>25603510, 25603503, 01015336667</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1st District, 4th Area, Street 36, Medical Center Mall</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, ENT, Audiology</t>
+          <t>Speech Therapy, Learning Difficulties</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1457,7 +1457,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>مركز تأهيل و تدريب الأطفال ITC</t>
+          <t>المركز المصري - لتنمية المهارات والتخاطب</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1492,29 +1492,29 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>Child Rehabilitation, Training</t>
+          <t>Speech Therapy, Skills Development</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>مركز فيوتشر لتنمية المهارات والتخاطب</t>
+          <t>أكاديمية النيل لتنمية مهارات الأطفال</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1524,22 +1524,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>03-9617939, 01288929078</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>أبو يوسف أمام مسجد الرحمن، العجمي</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>hodakhaial@yahoo.com</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Skills Development</t>
+          <t>Skills Development, Speech Therapy</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1551,22 +1551,22 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>مركز نهى رسلان لتدريب النطق والكلام</t>
+          <t>مركز صفصف للاحتياجات الخاصة</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Noha Raslan</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -1586,29 +1586,29 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy</t>
+          <t>Special Needs, Speech Therapy</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>مركز الندي للتخاطب وتعديل السلوك</t>
+          <t>الخوارزمي - أفضل مركز تخاطب</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -1638,24 +1638,24 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>مركز كُريّم لتنمية المهارات الحياتية والتخاطب</t>
+          <t>Mentality Egypt</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -1680,34 +1680,34 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Life Skills</t>
+          <t>Speech Therapy, Skills Development</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>مركز وعي للدعم النفسي وتنميه المهارات و التخاطب</t>
+          <t>مركز مهارات لتنمية قدرات الأطفال</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Shubra Khit</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Dr. Mohammed Fahmy Al-Zanqali</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Shubra Khit</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Psychological Support</t>
+          <t>Speech Therapy, Child Development</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1739,17 +1739,17 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>مركز التدخل المبكر</t>
+          <t>مركز التخاطب النموذجى فرع الاعجوزة</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Al-Agouza</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Giza</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
@@ -1759,12 +1759,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>+20 10 33805858</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>6 Nile Street, Al-Ajouza, Giza</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -1774,29 +1774,29 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Early Intervention</t>
+          <t>Speech Therapy, Learning Disabilities</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>Semouha Speech Pathology Center</t>
+          <t>مركز إشراقة للتخاطب وتعديل السلوك</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Semouha</t>
+          <t>Haram</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Giza</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>+20 11 14752963, 01113910919</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>302 El Qodah Division, Nouran Tower, Semouha</t>
+          <t>Haram, Shubramant, above Mustafa Mahmoud Mosque</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>Speech Pathology</t>
+          <t>Speech Therapy, Behavior Modification</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>Yellow Pages</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>Hero Center Speech Therapy</t>
+          <t>مركز شفاء للتدخل المبكر</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Loran</t>
+          <t>Haram</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Giza</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>6 Houda St., Loran, Alexandria</t>
+          <t>317 Haram Main Street, near Al-Talebeyya station</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -1868,29 +1868,29 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy</t>
+          <t>Speech Therapy, Early Intervention, Physical Therapy</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>Yellow Pages</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>مركز سموحه للتخاطب و تعديل السلوك</t>
+          <t>مركز اسمع و اتكلم</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Semouha</t>
+          <t>Sheikh Zayed</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Giza</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
@@ -1900,22 +1900,22 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>+20 10 07757359</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>1 Noran Tower, Street 302 Taqsim Elqada, Alexandria</t>
+          <t>Sheikh Zayed</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Support@SmouhaCenter.com</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Behavior Modification</t>
+          <t>Hearing Disorders, Speech Therapy</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -1927,17 +1927,17 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>مركز أيادى للتخاطب</t>
+          <t>مركز انسان للتدريب والاستشارات</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Haram</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Alexandria</t>
+          <t>Giza</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
@@ -1947,12 +1947,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>+20 12 24262644</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>6 Abdel Aziz Fahmy Street</t>
+          <t>378 Haram Street</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -1962,44 +1962,44 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Hearing Programs</t>
+          <t>Speech Therapy, Training</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>Directory</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>Salsabeel Center for Speech Therapy</t>
+          <t>قدرات للتخاطب بالهرم</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Tanta</t>
+          <t>Haram</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Gharbia</t>
+          <t>Giza</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Dr. Fatma Dehab</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>+20 10 03148019</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>Sibr Bay Street, Tanta, 4th Floor</t>
+          <t>119 Haram, Al-Kom Al-Akhdar, Al-Talebeyya</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -2009,44 +2009,44 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Family Counseling</t>
+          <t>Speech Therapy, Behavior Modification</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>Previous</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>Tanta Rehabilitation Center</t>
+          <t>ENT Clinic Egypt - Sheikh Zayed</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Tanta</t>
+          <t>Sheikh Zayed</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>Gharbia</t>
+          <t>Giza</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Habiba Fawzy</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>01014198168, 37952600</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>Al-Mahi Street, Tanta</t>
+          <t>District 16, Mezar Mall, Entrance 3, 2nd Floor</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -2056,29 +2056,29 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Rehabilitation</t>
+          <t>Speech Therapy, ENT, Audiology</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Previous</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>Optimism Centers (مراكز تفاؤل)</t>
+          <t>ENT Clinic Egypt - Engineers</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>Tanta</t>
+          <t>Giza</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Gharbia</t>
+          <t>Giza</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
@@ -2088,12 +2088,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>37628742, 37628804, 01011840058</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>Tanta</t>
+          <t>56 Syria Street, Engineers</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy</t>
+          <t>Speech Therapy, ENT, Audiology</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2115,32 +2115,32 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>أكاديمية المعرفة للتخاطب</t>
+          <t>ENT Clinic Egypt - Fifth Settlement</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Tanta</t>
+          <t>New Cairo</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Gharbia</t>
+          <t>Giza</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Dr. Shirin Muhammad Taha</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>25603510, 25603503, 01015336667</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>Tanta</t>
+          <t>1st District, 4th Area, Street 36, Medical Center Mall</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Child Rehabilitation</t>
+          <t>Speech Therapy, ENT, Audiology</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2162,17 +2162,17 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>المركز التخصصي للأنف والأذن والحنجرة</t>
+          <t>مركز فيوتشر لتنمية المهارات والتخاطب</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>Tanta</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Gharbia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
@@ -2182,22 +2182,22 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>03-9617939, 01288929078</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>Tanta</t>
+          <t>أبو يوسف، العجمي</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>hodakhaial@yahoo.com</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, ENT</t>
+          <t>Speech Therapy, Skills Development</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2209,22 +2209,22 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>المركز العالمى للعلاج الطبيعى والتخاطب</t>
+          <t>مركز نهى رسلان لتدريب النطق والكلام</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Tanta</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Gharbia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Noha Raslan</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>Tanta</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -2244,29 +2244,29 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Physical Therapy</t>
+          <t>Speech Therapy</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Search</t>
+          <t>Facebook</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>مركز ابتسم للتخاطب وتنمية المهارات</t>
+          <t>مركز الندي للتخاطب وتعديل السلوك</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>Benha</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Qalyubiya</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
@@ -2276,12 +2276,12 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>+20 10 07122652</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>Benha</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -2291,34 +2291,34 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Skills Development</t>
+          <t>Speech Therapy, Behavior Modification</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Search</t>
+          <t>Facebook</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>Kayan Center for Speech Training</t>
+          <t>مركز كُريّم لتنمية المهارات الحياتية والتخاطب</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Zagazig</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Sharqia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>Dr. Muhammad Fareed Al-Ghazawi</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>Zagazig</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -2338,29 +2338,29 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Training</t>
+          <t>Speech Therapy, Life Skills</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Search</t>
+          <t>Facebook</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>مركز براعم</t>
+          <t>مركز وعي للدعم النفسي والتخاطب</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>Ismailia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Ismailia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>Ismailia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Skill Development</t>
+          <t>Speech Therapy, Psychological Support</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
@@ -2397,17 +2397,17 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>مركز جومانا</t>
+          <t>مركز التدخل المبكر</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Ismailia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Ismailia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>Zahour district, Ismailia</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -2432,34 +2432,34 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy</t>
+          <t>Speech Therapy, Early Intervention</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>Search</t>
+          <t>Facebook</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>Dr. Radwa Khaled</t>
+          <t>Semouha Speech Pathology Center</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>Beni Suef</t>
+          <t>Semouha</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Beni Suef</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>Dr. Radwa Khaled</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>Abdel Salam Aref Street, Beni Suef</t>
+          <t>302 El Qodah Division, Nouran Tower</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -2479,29 +2479,29 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Learning Disabilities</t>
+          <t>Speech Pathology</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>Search</t>
+          <t>Yellow Pages</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>Care Academy</t>
+          <t>Hero Center Speech Therapy</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>Beni Suef</t>
+          <t>Loran</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Beni Suef</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>Beni Suef</t>
+          <t>6 Houda St., Loran</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
@@ -2526,29 +2526,29 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Autism, Special Needs</t>
+          <t>Speech Therapy</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Yellow Pages</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>Al-Mustaqbal Center</t>
+          <t>مركز سموحه للتخاطب و تعديل السلوك</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>Beni Suef</t>
+          <t>Semouha</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Beni Suef</t>
+          <t>Alexandria</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
@@ -2558,49 +2558,49 @@
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>+20 10 07757359</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>Beni Suef</t>
+          <t>1 Noran Tower, Street 302, Taqsim Elqada</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Support@SmouhaCenter.com</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Skill Development</t>
+          <t>Speech Therapy, Behavior Modification</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Search</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>كن معي</t>
+          <t>Salsabeel Center for Speech Therapy</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>Minya</t>
+          <t>Tanta</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Minya</t>
+          <t>Gharbia</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Dr. Fatma Dehab</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>Minya</t>
+          <t>Sibr Bay Street, Tanta, 4th Floor</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
@@ -2620,34 +2620,34 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Skill Development</t>
+          <t>Speech Therapy, Family Counseling</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Previous</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>مركز الإحسان</t>
+          <t>Tanta Rehabilitation Center</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>Luxor</t>
+          <t>Tanta</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Luxor</t>
+          <t>Gharbia</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Habiba Fawzy</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>Luxor</t>
+          <t>Al-Mahi Street, Tanta</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
@@ -2667,57 +2667,668 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>Speech Therapy, Brain Mapping</t>
+          <t>Speech Therapy, Rehabilitation</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Previous</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
+          <t>Optimism Centers (مراكز تفاؤل)</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Tanta</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>Gharbia</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>Tanta</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>أكاديمية المعرفة للتخاطب</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>Tanta</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>Gharbia</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Shirin Muhammad Taha</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>Tanta</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Child Rehabilitation</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>المركز التخصصي للأنف والأذن والحنجرة</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Tanta</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Gharbia</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>Tanta</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, ENT</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>المركز العالمى للعلاج الطبيعى والتخاطب</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Tanta</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>Gharbia</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>Tanta</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Physical Therapy</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>مركز ابتسم للتخاطب وتنمية المهارات</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Benha</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>Qalyubiya</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>+20 10 07122652</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>Benha</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Skills Development</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>Kayan Center for Speech Training</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>Zagazig</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>Sharqia</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Muhammad Fareed Al-Ghazawi</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>Zagazig</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Training</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>مركز براعم</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>Ismailia</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>Ismailia</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>Ismailia</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Skill Development</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>مركز جومانا</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>Ismailia</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>Ismailia</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>Zahour district, Ismailia</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Radwa Khaled</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Beni Suef</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>Beni Suef</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Radwa Khaled</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>Abdel Salam Aref Street, Beni Suef</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Learning Disabilities</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Care Academy</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>Beni Suef</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>Beni Suef</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>Beni Suef</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Autism, Special Needs</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Al-Mustaqbal Center</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>Beni Suef</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>Beni Suef</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>Beni Suef</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Skill Development</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>كن معي</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>Minya</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>Minya</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>Minya</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Skill Development</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>مركز الإحسان</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>Speech Therapy, Brain Mapping</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
           <t>Amira Samir Saad - Speech Therapy</t>
         </is>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>El-Mahalla</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>Dakahlia</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr">
+      <c r="D61" s="2" t="inlineStr">
         <is>
           <t>Amira Samir Saad</t>
         </is>
       </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
         <is>
           <t>El-Mahalla El-Kubra</t>
         </is>
       </c>
-      <c r="G48" s="2" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
         <is>
           <t>Speech Therapy, Behavior Modification</t>
         </is>
       </c>
-      <c r="I48" s="2" t="inlineStr">
+      <c r="I61" s="2" t="inlineStr">
         <is>
           <t>Previous</t>
         </is>
@@ -2734,7 +3345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2743,13 +3354,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="70" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>COMPREHENSIVE SPEECH THERAPY CENTERS IN EGYPT</t>
+          <t>COMPREHENSIVE SPEECH THERAPY CENTERS IN EGYPT - EXPANDED DATABASE</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr"/>
@@ -2761,11 +3372,11 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>TOTAL CENTERS FOUND &amp; DOCUMENTED</t>
+          <t>TOTAL CENTERS DOCUMENTED</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -2787,7 +3398,7 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2807,7 +3418,7 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -2837,16 +3448,16 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">  Ismailia:</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2861,12 +3472,12 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Minya:</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2897,7 +3508,7 @@
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>GOVERNMENT RESOURCES:</t>
+          <t>SEARCH STATUS</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr"/>
@@ -2905,108 +3516,48 @@
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>Ministry of Youth &amp; Sports Centers</t>
+          <t>Fully Searched Cities:</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>99 centers on youth center networks nationwide</t>
+          <t>Cairo, Giza, Alexandria, Tanta, Benha, Zagazig, Ismailia, Beni Suef, Minya, Luxor</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>UAE-Funded ZHO Centers</t>
+          <t>Partial Search:</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>10 new centers in 6 governorates (2024)</t>
+          <t>Other Delta and Upper Egypt cities</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
-        <is>
-          <t>Government Village Centers</t>
-        </is>
-      </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>68 centers across rural areas nationwide</t>
-        </is>
-      </c>
+      <c r="A21" s="4" t="inlineStr"/>
+      <c r="B21" s="4" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr"/>
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>NEXT STEPS:</t>
+        </is>
+      </c>
       <c r="B22" s="4" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>MAJOR ONLINE DIRECTORIES:</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="inlineStr">
-        <is>
-          <t>Egypt Yellow Pages</t>
-        </is>
-      </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>https://yellowpages.com.eg/ - 168+ centers total</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="inlineStr">
-        <is>
-          <t>Vezeeta.com</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>https://www.vezeeta.com/ar/دكتور/نطق-وتخاطب/مصر - 58+ doctors</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="inlineStr">
-        <is>
-          <t>Special Egypt</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>https://www.specialegypt.com/2020/12/speech-centers-in-cairo.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="4" t="inlineStr">
-        <is>
-          <t>Ekshef</t>
-        </is>
-      </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>https://ekshef.com/دكتور/نطق-وتخاطب/مصر - 56+ doctors</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="inlineStr">
-        <is>
-          <t>Dalili Medical</t>
-        </is>
-      </c>
-      <c r="B28" s="4" t="inlineStr">
-        <is>
-          <t>https://www.dalilimedical.com/ - Comprehensive directory</t>
+          <t>Continue systematic city-by-city search</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Search remaining 50+ cities for completeness</t>
         </is>
       </c>
     </row>

--- a/Speech_Therapy_Centers_Egypt.xlsx
+++ b/Speech_Therapy_Centers_Egypt.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -36,8 +36,29 @@
       <color rgb="00FFFFFF"/>
       <sz val="11"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="13"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="001F4E78"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="001F4E78"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -48,6 +69,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="001F4E78"/>
         <bgColor rgb="001F4E78"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9E1F2"/>
+        <bgColor rgb="00D9E1F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -69,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -82,6 +109,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3334,6 +3384,1267 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>El Eyada Specialized Center</t>
+        </is>
+      </c>
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>Port Said</t>
+        </is>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>Port Said</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="inlineStr"/>
+      <c r="E62" s="5" t="inlineStr"/>
+      <c r="F62" s="5" t="inlineStr">
+        <is>
+          <t>Port Said</t>
+        </is>
+      </c>
+      <c r="G62" s="5" t="inlineStr"/>
+      <c r="H62" s="5" t="inlineStr">
+        <is>
+          <t>Speech therapy</t>
+        </is>
+      </c>
+      <c r="I62" s="5" t="inlineStr">
+        <is>
+          <t>CliniDo Platform</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>Dar Makkah Center (مركز دار مكة)</t>
+        </is>
+      </c>
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>Suez</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t>Suez</t>
+        </is>
+      </c>
+      <c r="D63" s="5" t="inlineStr">
+        <is>
+          <t>Sarah Fathy</t>
+        </is>
+      </c>
+      <c r="E63" s="5" t="inlineStr"/>
+      <c r="F63" s="5" t="inlineStr">
+        <is>
+          <t>Abdel Moneim Riyad Street, Gasr al-Suez</t>
+        </is>
+      </c>
+      <c r="G63" s="5" t="inlineStr"/>
+      <c r="H63" s="5" t="inlineStr">
+        <is>
+          <t>Speech therapy, Speech disorder treatment</t>
+        </is>
+      </c>
+      <c r="I63" s="5" t="inlineStr">
+        <is>
+          <t>Web Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="inlineStr">
+        <is>
+          <t>Hurghada Youth Center Speech Therapy Center</t>
+        </is>
+      </c>
+      <c r="B64" s="5" t="inlineStr">
+        <is>
+          <t>Hurghada</t>
+        </is>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>Red Sea</t>
+        </is>
+      </c>
+      <c r="D64" s="5" t="inlineStr"/>
+      <c r="E64" s="5" t="inlineStr"/>
+      <c r="F64" s="5" t="inlineStr">
+        <is>
+          <t>Hurghada</t>
+        </is>
+      </c>
+      <c r="G64" s="5" t="inlineStr"/>
+      <c r="H64" s="5" t="inlineStr">
+        <is>
+          <t>Speech therapy, Sensory integration, Psychological evaluation</t>
+        </is>
+      </c>
+      <c r="I64" s="5" t="inlineStr">
+        <is>
+          <t>Government Facility</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="inlineStr">
+        <is>
+          <t>Safaga Youth Center Speech Therapy Center</t>
+        </is>
+      </c>
+      <c r="B65" s="5" t="inlineStr">
+        <is>
+          <t>Safaga</t>
+        </is>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
+        <is>
+          <t>Red Sea</t>
+        </is>
+      </c>
+      <c r="D65" s="5" t="inlineStr"/>
+      <c r="E65" s="5" t="inlineStr"/>
+      <c r="F65" s="5" t="inlineStr">
+        <is>
+          <t>Safaga</t>
+        </is>
+      </c>
+      <c r="G65" s="5" t="inlineStr"/>
+      <c r="H65" s="5" t="inlineStr">
+        <is>
+          <t>Speech therapy, Sensory integration</t>
+        </is>
+      </c>
+      <c r="I65" s="5" t="inlineStr">
+        <is>
+          <t>Government Facility</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="inlineStr">
+        <is>
+          <t>MO2 Speech Therapy Center (مركز MO2 للتخاطب)</t>
+        </is>
+      </c>
+      <c r="B66" s="5" t="inlineStr">
+        <is>
+          <t>Kafr El-Sheikh</t>
+        </is>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>Kafr El-Sheikh</t>
+        </is>
+      </c>
+      <c r="D66" s="5" t="inlineStr"/>
+      <c r="E66" s="5" t="inlineStr"/>
+      <c r="F66" s="5" t="inlineStr">
+        <is>
+          <t>Kafr El-Sheikh</t>
+        </is>
+      </c>
+      <c r="G66" s="5" t="inlineStr"/>
+      <c r="H66" s="5" t="inlineStr">
+        <is>
+          <t>Autism rehabilitation, Learning difficulties, Speech therapy</t>
+        </is>
+      </c>
+      <c r="I66" s="5" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="inlineStr">
+        <is>
+          <t>Al Bayan Center (مركز البيان)</t>
+        </is>
+      </c>
+      <c r="B67" s="5" t="inlineStr">
+        <is>
+          <t>Kafr El-Sheikh</t>
+        </is>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>Kafr El-Sheikh</t>
+        </is>
+      </c>
+      <c r="D67" s="5" t="inlineStr"/>
+      <c r="E67" s="5" t="inlineStr"/>
+      <c r="F67" s="5" t="inlineStr">
+        <is>
+          <t>Kafr El-Sheikh</t>
+        </is>
+      </c>
+      <c r="G67" s="5" t="inlineStr"/>
+      <c r="H67" s="5" t="inlineStr">
+        <is>
+          <t>Speech therapy, Learning difficulties, Autism services</t>
+        </is>
+      </c>
+      <c r="I67" s="5" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="inlineStr">
+        <is>
+          <t>Zat Training and Consulting Center (مركز ذات)</t>
+        </is>
+      </c>
+      <c r="B68" s="5" t="inlineStr">
+        <is>
+          <t>Damanhur</t>
+        </is>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>Beheira</t>
+        </is>
+      </c>
+      <c r="D68" s="5" t="inlineStr">
+        <is>
+          <t>Dr. Mariana Adel</t>
+        </is>
+      </c>
+      <c r="E68" s="5" t="inlineStr"/>
+      <c r="F68" s="5" t="inlineStr">
+        <is>
+          <t>Damanhur</t>
+        </is>
+      </c>
+      <c r="G68" s="5" t="inlineStr"/>
+      <c r="H68" s="5" t="inlineStr">
+        <is>
+          <t>Rehabilitation, Education, Skill development</t>
+        </is>
+      </c>
+      <c r="I68" s="5" t="inlineStr">
+        <is>
+          <t>Web Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="inlineStr">
+        <is>
+          <t>Hope's Light Center (مركز إشراقة أمل)</t>
+        </is>
+      </c>
+      <c r="B69" s="5" t="inlineStr">
+        <is>
+          <t>Damanhur</t>
+        </is>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>Beheira</t>
+        </is>
+      </c>
+      <c r="D69" s="5" t="inlineStr">
+        <is>
+          <t>Dr. Iman Hassan</t>
+        </is>
+      </c>
+      <c r="E69" s="5" t="inlineStr"/>
+      <c r="F69" s="5" t="inlineStr">
+        <is>
+          <t>Al-Mawazin Street, near Dar Al-Salam Hospital</t>
+        </is>
+      </c>
+      <c r="G69" s="5" t="inlineStr"/>
+      <c r="H69" s="5" t="inlineStr">
+        <is>
+          <t>Skill development, Behavioral therapy</t>
+        </is>
+      </c>
+      <c r="I69" s="5" t="inlineStr">
+        <is>
+          <t>Web Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="inlineStr">
+        <is>
+          <t>Better Life Center (مركز أحلى حياة)</t>
+        </is>
+      </c>
+      <c r="B70" s="5" t="inlineStr">
+        <is>
+          <t>Damanhur</t>
+        </is>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>Beheira</t>
+        </is>
+      </c>
+      <c r="D70" s="5" t="inlineStr">
+        <is>
+          <t>Dr. Hoda Talal Al-Taye</t>
+        </is>
+      </c>
+      <c r="E70" s="5" t="inlineStr"/>
+      <c r="F70" s="5" t="inlineStr">
+        <is>
+          <t>Damanhur</t>
+        </is>
+      </c>
+      <c r="G70" s="5" t="inlineStr"/>
+      <c r="H70" s="5" t="inlineStr">
+        <is>
+          <t>Psychological and educational rehabilitation</t>
+        </is>
+      </c>
+      <c r="I70" s="5" t="inlineStr">
+        <is>
+          <t>Web Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="inlineStr">
+        <is>
+          <t>Life Speech Therapy Center (مركز لايف للتخاطب)</t>
+        </is>
+      </c>
+      <c r="B71" s="5" t="inlineStr">
+        <is>
+          <t>Damanhur</t>
+        </is>
+      </c>
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>Beheira</t>
+        </is>
+      </c>
+      <c r="D71" s="5" t="inlineStr"/>
+      <c r="E71" s="5" t="inlineStr"/>
+      <c r="F71" s="5" t="inlineStr">
+        <is>
+          <t>21 Ibrahim Mazhar Street, Clock Square, Damanhur</t>
+        </is>
+      </c>
+      <c r="G71" s="5" t="inlineStr"/>
+      <c r="H71" s="5" t="inlineStr">
+        <is>
+          <t>Speech therapy</t>
+        </is>
+      </c>
+      <c r="I71" s="5" t="inlineStr">
+        <is>
+          <t>Web Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="inlineStr">
+        <is>
+          <t>Speech Therapy and Speech Defects Center</t>
+        </is>
+      </c>
+      <c r="B72" s="5" t="inlineStr">
+        <is>
+          <t>Damanhur</t>
+        </is>
+      </c>
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t>Beheira</t>
+        </is>
+      </c>
+      <c r="D72" s="5" t="inlineStr"/>
+      <c r="E72" s="5" t="inlineStr"/>
+      <c r="F72" s="5" t="inlineStr">
+        <is>
+          <t>Damanhur</t>
+        </is>
+      </c>
+      <c r="G72" s="5" t="inlineStr"/>
+      <c r="H72" s="5" t="inlineStr">
+        <is>
+          <t>Speech therapy, Speech defects correction</t>
+        </is>
+      </c>
+      <c r="I72" s="5" t="inlineStr">
+        <is>
+          <t>Web Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>Almny Harfa Center for Early Intervention (مركز علمنى حرفا)</t>
+        </is>
+      </c>
+      <c r="B73" s="5" t="inlineStr">
+        <is>
+          <t>Damanhur</t>
+        </is>
+      </c>
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>Beheira</t>
+        </is>
+      </c>
+      <c r="D73" s="5" t="inlineStr"/>
+      <c r="E73" s="5" t="inlineStr"/>
+      <c r="F73" s="5" t="inlineStr">
+        <is>
+          <t>Behind Engineers' Syndicate, Naqraha, Damanhur</t>
+        </is>
+      </c>
+      <c r="G73" s="5" t="inlineStr"/>
+      <c r="H73" s="5" t="inlineStr">
+        <is>
+          <t>Speech pathology, Early intervention</t>
+        </is>
+      </c>
+      <c r="I73" s="5" t="inlineStr">
+        <is>
+          <t>Web Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="inlineStr">
+        <is>
+          <t>Roaia Gadida Center (مركز رؤية جديدة)</t>
+        </is>
+      </c>
+      <c r="B74" s="5" t="inlineStr">
+        <is>
+          <t>Kafr El-Dawar</t>
+        </is>
+      </c>
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t>Beheira</t>
+        </is>
+      </c>
+      <c r="D74" s="5" t="inlineStr"/>
+      <c r="E74" s="5" t="inlineStr"/>
+      <c r="F74" s="5" t="inlineStr">
+        <is>
+          <t>Kafr El-Dawar</t>
+        </is>
+      </c>
+      <c r="G74" s="5" t="inlineStr"/>
+      <c r="H74" s="5" t="inlineStr">
+        <is>
+          <t>Speech rehabilitation, Skill development, Behavior modification</t>
+        </is>
+      </c>
+      <c r="I74" s="5" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="inlineStr">
+        <is>
+          <t>Speech Therapy Center at Sharif Square</t>
+        </is>
+      </c>
+      <c r="B75" s="5" t="inlineStr">
+        <is>
+          <t>Shibin El-Kom</t>
+        </is>
+      </c>
+      <c r="C75" s="5" t="inlineStr">
+        <is>
+          <t>Monofiya</t>
+        </is>
+      </c>
+      <c r="D75" s="5" t="inlineStr"/>
+      <c r="E75" s="5" t="inlineStr"/>
+      <c r="F75" s="5" t="inlineStr">
+        <is>
+          <t>Sharif Square, Al-Zahra Tower, 4th floor</t>
+        </is>
+      </c>
+      <c r="G75" s="5" t="inlineStr"/>
+      <c r="H75" s="5" t="inlineStr">
+        <is>
+          <t>Speech therapy</t>
+        </is>
+      </c>
+      <c r="I75" s="5" t="inlineStr">
+        <is>
+          <t>Vezeeta/Yellow Pages</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="inlineStr">
+        <is>
+          <t>Qodrat Speech Therapy Center (مركز قدرات)</t>
+        </is>
+      </c>
+      <c r="B76" s="5" t="inlineStr">
+        <is>
+          <t>Shibin El-Kom</t>
+        </is>
+      </c>
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t>Monofiya</t>
+        </is>
+      </c>
+      <c r="D76" s="5" t="inlineStr"/>
+      <c r="E76" s="5" t="inlineStr"/>
+      <c r="F76" s="5" t="inlineStr">
+        <is>
+          <t>Shebin El Kom</t>
+        </is>
+      </c>
+      <c r="G76" s="5" t="inlineStr"/>
+      <c r="H76" s="5" t="inlineStr">
+        <is>
+          <t>Speech therapy</t>
+        </is>
+      </c>
+      <c r="I76" s="5" t="inlineStr">
+        <is>
+          <t>Web Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>Wonjoud Center for Special Needs (مركز وجود)</t>
+        </is>
+      </c>
+      <c r="B77" s="5" t="inlineStr">
+        <is>
+          <t>Shibin El-Kom</t>
+        </is>
+      </c>
+      <c r="C77" s="5" t="inlineStr">
+        <is>
+          <t>Monofiya</t>
+        </is>
+      </c>
+      <c r="D77" s="5" t="inlineStr"/>
+      <c r="E77" s="5" t="inlineStr"/>
+      <c r="F77" s="5" t="inlineStr">
+        <is>
+          <t>Saad Zagloul &amp; Talaat Harb Streets, Shebin El Kom</t>
+        </is>
+      </c>
+      <c r="G77" s="5" t="inlineStr"/>
+      <c r="H77" s="5" t="inlineStr">
+        <is>
+          <t>Special needs services, Speech therapy</t>
+        </is>
+      </c>
+      <c r="I77" s="5" t="inlineStr">
+        <is>
+          <t>Web Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="inlineStr">
+        <is>
+          <t>Speech Therapy Center in Horein Village</t>
+        </is>
+      </c>
+      <c r="B78" s="5" t="inlineStr">
+        <is>
+          <t>Horein</t>
+        </is>
+      </c>
+      <c r="C78" s="5" t="inlineStr">
+        <is>
+          <t>Monofiya</t>
+        </is>
+      </c>
+      <c r="D78" s="5" t="inlineStr"/>
+      <c r="E78" s="5" t="inlineStr"/>
+      <c r="F78" s="5" t="inlineStr">
+        <is>
+          <t>Horein, Barka El-Seba'</t>
+        </is>
+      </c>
+      <c r="G78" s="5" t="inlineStr"/>
+      <c r="H78" s="5" t="inlineStr">
+        <is>
+          <t>Speech therapy, Learning difficulties</t>
+        </is>
+      </c>
+      <c r="I78" s="5" t="inlineStr">
+        <is>
+          <t>Web Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="inlineStr">
+        <is>
+          <t>Al-Delta Speech Therapy Center (مركز الدلتا للتخاطب)</t>
+        </is>
+      </c>
+      <c r="B79" s="5" t="inlineStr">
+        <is>
+          <t>Mansoura</t>
+        </is>
+      </c>
+      <c r="C79" s="5" t="inlineStr">
+        <is>
+          <t>Dakahlia</t>
+        </is>
+      </c>
+      <c r="D79" s="5" t="inlineStr"/>
+      <c r="E79" s="5" t="inlineStr"/>
+      <c r="F79" s="5" t="inlineStr">
+        <is>
+          <t>Imam Muhammad Abduh Street, near mosque</t>
+        </is>
+      </c>
+      <c r="G79" s="5" t="inlineStr"/>
+      <c r="H79" s="5" t="inlineStr">
+        <is>
+          <t>Speech therapy, Rehabilitation</t>
+        </is>
+      </c>
+      <c r="I79" s="5" t="inlineStr">
+        <is>
+          <t>Web Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="inlineStr">
+        <is>
+          <t>Tawazon Center for Speech and Mental Health (مركز توازن)</t>
+        </is>
+      </c>
+      <c r="B80" s="5" t="inlineStr">
+        <is>
+          <t>Mansoura</t>
+        </is>
+      </c>
+      <c r="C80" s="5" t="inlineStr">
+        <is>
+          <t>Dakahlia</t>
+        </is>
+      </c>
+      <c r="D80" s="5" t="inlineStr"/>
+      <c r="E80" s="5" t="inlineStr">
+        <is>
+          <t>01010355883, 01091150273</t>
+        </is>
+      </c>
+      <c r="F80" s="5" t="inlineStr">
+        <is>
+          <t>Qanat Al Suez Street, 3rd floor</t>
+        </is>
+      </c>
+      <c r="G80" s="5" t="inlineStr"/>
+      <c r="H80" s="5" t="inlineStr">
+        <is>
+          <t>Child development, Psychological support, Speech therapy</t>
+        </is>
+      </c>
+      <c r="I80" s="5" t="inlineStr">
+        <is>
+          <t>Web Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="inlineStr">
+        <is>
+          <t>El Batal Center for Speech and Rehabilitation (مركز البطل)</t>
+        </is>
+      </c>
+      <c r="B81" s="5" t="inlineStr">
+        <is>
+          <t>Mansoura</t>
+        </is>
+      </c>
+      <c r="C81" s="5" t="inlineStr">
+        <is>
+          <t>Dakahlia</t>
+        </is>
+      </c>
+      <c r="D81" s="5" t="inlineStr">
+        <is>
+          <t>Mirna Rafik</t>
+        </is>
+      </c>
+      <c r="E81" s="5" t="inlineStr">
+        <is>
+          <t>01063369651</t>
+        </is>
+      </c>
+      <c r="F81" s="5" t="inlineStr">
+        <is>
+          <t>Ezbet Akl Street, near Anba Bola Church</t>
+        </is>
+      </c>
+      <c r="G81" s="5" t="inlineStr"/>
+      <c r="H81" s="5" t="inlineStr">
+        <is>
+          <t>Speech therapy, Rehabilitation</t>
+        </is>
+      </c>
+      <c r="I81" s="5" t="inlineStr">
+        <is>
+          <t>Web Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="inlineStr">
+        <is>
+          <t>Child Care and Development Center - Mansoura University</t>
+        </is>
+      </c>
+      <c r="B82" s="5" t="inlineStr">
+        <is>
+          <t>Mansoura</t>
+        </is>
+      </c>
+      <c r="C82" s="5" t="inlineStr">
+        <is>
+          <t>Dakahlia</t>
+        </is>
+      </c>
+      <c r="D82" s="5" t="inlineStr"/>
+      <c r="E82" s="5" t="inlineStr"/>
+      <c r="F82" s="5" t="inlineStr">
+        <is>
+          <t>Mansoura University</t>
+        </is>
+      </c>
+      <c r="G82" s="5" t="inlineStr"/>
+      <c r="H82" s="5" t="inlineStr">
+        <is>
+          <t>Speech therapy sessions, Child development</t>
+        </is>
+      </c>
+      <c r="I82" s="5" t="inlineStr">
+        <is>
+          <t>Web Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="inlineStr">
+        <is>
+          <t>Edrak Center for Human Skills Development (مركز إدراك)</t>
+        </is>
+      </c>
+      <c r="B83" s="5" t="inlineStr">
+        <is>
+          <t>Mansoura</t>
+        </is>
+      </c>
+      <c r="C83" s="5" t="inlineStr">
+        <is>
+          <t>Dakahlia</t>
+        </is>
+      </c>
+      <c r="D83" s="5" t="inlineStr"/>
+      <c r="E83" s="5" t="inlineStr"/>
+      <c r="F83" s="5" t="inlineStr">
+        <is>
+          <t>Mansoura/Talkha area</t>
+        </is>
+      </c>
+      <c r="G83" s="5" t="inlineStr"/>
+      <c r="H83" s="5" t="inlineStr">
+        <is>
+          <t>Speech therapy, Skills development</t>
+        </is>
+      </c>
+      <c r="I83" s="5" t="inlineStr">
+        <is>
+          <t>Web Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="inlineStr">
+        <is>
+          <t>Al-Bayan Speech Therapy Center (مركز البيان)</t>
+        </is>
+      </c>
+      <c r="B84" s="5" t="inlineStr">
+        <is>
+          <t>Mit Ghamr</t>
+        </is>
+      </c>
+      <c r="C84" s="5" t="inlineStr">
+        <is>
+          <t>Dakahlia</t>
+        </is>
+      </c>
+      <c r="D84" s="5" t="inlineStr"/>
+      <c r="E84" s="5" t="inlineStr"/>
+      <c r="F84" s="5" t="inlineStr">
+        <is>
+          <t>Mit Ghamr</t>
+        </is>
+      </c>
+      <c r="G84" s="5" t="inlineStr"/>
+      <c r="H84" s="5" t="inlineStr">
+        <is>
+          <t>Speech therapy, Skill development, Learning difficulties</t>
+        </is>
+      </c>
+      <c r="I84" s="5" t="inlineStr">
+        <is>
+          <t>Web Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="inlineStr">
+        <is>
+          <t>Al-Rehab Center (مركز الرحاب للتخاطب والارشاد النفسي)</t>
+        </is>
+      </c>
+      <c r="B85" s="5" t="inlineStr">
+        <is>
+          <t>Mit Ghamr</t>
+        </is>
+      </c>
+      <c r="C85" s="5" t="inlineStr">
+        <is>
+          <t>Dakahlia</t>
+        </is>
+      </c>
+      <c r="D85" s="5" t="inlineStr"/>
+      <c r="E85" s="5" t="inlineStr">
+        <is>
+          <t>01201051559, 01204608122</t>
+        </is>
+      </c>
+      <c r="F85" s="5" t="inlineStr">
+        <is>
+          <t>Abtal Al-Falluja Street, Mit Ghamr</t>
+        </is>
+      </c>
+      <c r="G85" s="5" t="inlineStr"/>
+      <c r="H85" s="5" t="inlineStr">
+        <is>
+          <t>Speech therapy, Behavioral therapy, IQ/Autism/ADHD tests</t>
+        </is>
+      </c>
+      <c r="I85" s="5" t="inlineStr">
+        <is>
+          <t>Web Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="inlineStr">
+        <is>
+          <t>The Specialized Treatment Center (مركز علاجى التخصصى)</t>
+        </is>
+      </c>
+      <c r="B86" s="5" t="inlineStr">
+        <is>
+          <t>Mit Ghamr</t>
+        </is>
+      </c>
+      <c r="C86" s="5" t="inlineStr">
+        <is>
+          <t>Dakahlia</t>
+        </is>
+      </c>
+      <c r="D86" s="5" t="inlineStr"/>
+      <c r="E86" s="5" t="inlineStr"/>
+      <c r="F86" s="5" t="inlineStr">
+        <is>
+          <t>26 July Street, above Bim supermarket, Mit Ghamr</t>
+        </is>
+      </c>
+      <c r="G86" s="5" t="inlineStr"/>
+      <c r="H86" s="5" t="inlineStr">
+        <is>
+          <t>Speech therapy, Medical services</t>
+        </is>
+      </c>
+      <c r="I86" s="5" t="inlineStr">
+        <is>
+          <t>Web Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="inlineStr">
+        <is>
+          <t>A.M Academy</t>
+        </is>
+      </c>
+      <c r="B87" s="5" t="inlineStr">
+        <is>
+          <t>Mit Ghamr</t>
+        </is>
+      </c>
+      <c r="C87" s="5" t="inlineStr">
+        <is>
+          <t>Dakahlia</t>
+        </is>
+      </c>
+      <c r="D87" s="5" t="inlineStr"/>
+      <c r="E87" s="5" t="inlineStr"/>
+      <c r="F87" s="5" t="inlineStr">
+        <is>
+          <t>Mit Ghamr</t>
+        </is>
+      </c>
+      <c r="G87" s="5" t="inlineStr"/>
+      <c r="H87" s="5" t="inlineStr">
+        <is>
+          <t>Early education, Skills development, Linguistic abilities</t>
+        </is>
+      </c>
+      <c r="I87" s="5" t="inlineStr">
+        <is>
+          <t>Web Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="inlineStr">
+        <is>
+          <t>Tawassul Center for Speech Therapy (مركز تواصل)</t>
+        </is>
+      </c>
+      <c r="B88" s="5" t="inlineStr">
+        <is>
+          <t>Assiut</t>
+        </is>
+      </c>
+      <c r="C88" s="5" t="inlineStr">
+        <is>
+          <t>Assiut</t>
+        </is>
+      </c>
+      <c r="D88" s="5" t="inlineStr"/>
+      <c r="E88" s="5" t="inlineStr">
+        <is>
+          <t>0100 407 4193</t>
+        </is>
+      </c>
+      <c r="F88" s="5" t="inlineStr">
+        <is>
+          <t>Al-Maraga, Assiut-Sohag Road</t>
+        </is>
+      </c>
+      <c r="G88" s="5" t="inlineStr"/>
+      <c r="H88" s="5" t="inlineStr">
+        <is>
+          <t>Speech therapy, Speech disorders treatment</t>
+        </is>
+      </c>
+      <c r="I88" s="5" t="inlineStr">
+        <is>
+          <t>Web Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="inlineStr">
+        <is>
+          <t>Ataa Center for Speech Therapy (مركز عطاء)</t>
+        </is>
+      </c>
+      <c r="B89" s="5" t="inlineStr">
+        <is>
+          <t>Sohag</t>
+        </is>
+      </c>
+      <c r="C89" s="5" t="inlineStr">
+        <is>
+          <t>Sohag</t>
+        </is>
+      </c>
+      <c r="D89" s="5" t="inlineStr"/>
+      <c r="E89" s="5" t="inlineStr"/>
+      <c r="F89" s="5" t="inlineStr">
+        <is>
+          <t>Sohag</t>
+        </is>
+      </c>
+      <c r="G89" s="5" t="inlineStr"/>
+      <c r="H89" s="5" t="inlineStr">
+        <is>
+          <t>Speech therapy, Skills development</t>
+        </is>
+      </c>
+      <c r="I89" s="5" t="inlineStr">
+        <is>
+          <t>Web Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="inlineStr">
+        <is>
+          <t>Nasser Center for Physical Therapy (مركز ناصر)</t>
+        </is>
+      </c>
+      <c r="B90" s="5" t="inlineStr">
+        <is>
+          <t>Sohag</t>
+        </is>
+      </c>
+      <c r="C90" s="5" t="inlineStr">
+        <is>
+          <t>Sohag</t>
+        </is>
+      </c>
+      <c r="D90" s="5" t="inlineStr"/>
+      <c r="E90" s="5" t="inlineStr"/>
+      <c r="F90" s="5" t="inlineStr">
+        <is>
+          <t>Omar Makram Street, Sohag</t>
+        </is>
+      </c>
+      <c r="G90" s="5" t="inlineStr"/>
+      <c r="H90" s="5" t="inlineStr">
+        <is>
+          <t>Physical therapy, Speech therapy, Skill development</t>
+        </is>
+      </c>
+      <c r="I90" s="5" t="inlineStr">
+        <is>
+          <t>Web Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="inlineStr">
+        <is>
+          <t>Qadiroun Bekhtilaf Center (قادرون باختلاف)</t>
+        </is>
+      </c>
+      <c r="B91" s="5" t="inlineStr">
+        <is>
+          <t>Al-Arish</t>
+        </is>
+      </c>
+      <c r="C91" s="5" t="inlineStr">
+        <is>
+          <t>North Sinai</t>
+        </is>
+      </c>
+      <c r="D91" s="5" t="inlineStr"/>
+      <c r="E91" s="5" t="inlineStr"/>
+      <c r="F91" s="5" t="inlineStr">
+        <is>
+          <t>Al-Reesa district, Al-Arish</t>
+        </is>
+      </c>
+      <c r="G91" s="5" t="inlineStr"/>
+      <c r="H91" s="5" t="inlineStr">
+        <is>
+          <t>Speech therapy, Skills development, Behavioral modification</t>
+        </is>
+      </c>
+      <c r="I91" s="5" t="inlineStr">
+        <is>
+          <t>Government Facility</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="inlineStr">
+        <is>
+          <t>Al-Arish Youth Center</t>
+        </is>
+      </c>
+      <c r="B92" s="5" t="inlineStr">
+        <is>
+          <t>Al-Arish</t>
+        </is>
+      </c>
+      <c r="C92" s="5" t="inlineStr">
+        <is>
+          <t>North Sinai</t>
+        </is>
+      </c>
+      <c r="D92" s="5" t="inlineStr"/>
+      <c r="E92" s="5" t="inlineStr"/>
+      <c r="F92" s="5" t="inlineStr">
+        <is>
+          <t>Al-Arish</t>
+        </is>
+      </c>
+      <c r="G92" s="5" t="inlineStr"/>
+      <c r="H92" s="5" t="inlineStr">
+        <is>
+          <t>Speech therapy, Skills development</t>
+        </is>
+      </c>
+      <c r="I92" s="5" t="inlineStr">
+        <is>
+          <t>Government Facility</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="inlineStr">
+        <is>
+          <t>Qahafa Youth Center</t>
+        </is>
+      </c>
+      <c r="B93" s="5" t="inlineStr">
+        <is>
+          <t>Medinet Fayoum</t>
+        </is>
+      </c>
+      <c r="C93" s="5" t="inlineStr">
+        <is>
+          <t>Fayoum</t>
+        </is>
+      </c>
+      <c r="D93" s="5" t="inlineStr"/>
+      <c r="E93" s="5" t="inlineStr"/>
+      <c r="F93" s="5" t="inlineStr">
+        <is>
+          <t>Medinet Fayoum</t>
+        </is>
+      </c>
+      <c r="G93" s="5" t="inlineStr"/>
+      <c r="H93" s="5" t="inlineStr">
+        <is>
+          <t>Speech therapy, Autism, Behavioral modification, Sensory integration</t>
+        </is>
+      </c>
+      <c r="I93" s="5" t="inlineStr">
+        <is>
+          <t>Government Facility</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="inlineStr">
+        <is>
+          <t>Al-Amiriya Youth Center</t>
+        </is>
+      </c>
+      <c r="B94" s="5" t="inlineStr">
+        <is>
+          <t>Medinet Fayoum</t>
+        </is>
+      </c>
+      <c r="C94" s="5" t="inlineStr">
+        <is>
+          <t>Fayoum</t>
+        </is>
+      </c>
+      <c r="D94" s="5" t="inlineStr"/>
+      <c r="E94" s="5" t="inlineStr"/>
+      <c r="F94" s="5" t="inlineStr">
+        <is>
+          <t>Medinet Fayoum</t>
+        </is>
+      </c>
+      <c r="G94" s="5" t="inlineStr"/>
+      <c r="H94" s="5" t="inlineStr">
+        <is>
+          <t>Speech therapy, Behavioral modification, Skill development</t>
+        </is>
+      </c>
+      <c r="I94" s="5" t="inlineStr">
+        <is>
+          <t>Government Facility</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="inlineStr">
+        <is>
+          <t>Tabarak Center (مركز تبارك)</t>
+        </is>
+      </c>
+      <c r="B95" s="5" t="inlineStr">
+        <is>
+          <t>Marsa Matruh</t>
+        </is>
+      </c>
+      <c r="C95" s="5" t="inlineStr">
+        <is>
+          <t>Matruh</t>
+        </is>
+      </c>
+      <c r="D95" s="5" t="inlineStr"/>
+      <c r="E95" s="5" t="inlineStr"/>
+      <c r="F95" s="5" t="inlineStr">
+        <is>
+          <t>Marsa Matruh</t>
+        </is>
+      </c>
+      <c r="G95" s="5" t="inlineStr"/>
+      <c r="H95" s="5" t="inlineStr">
+        <is>
+          <t>Physical therapy, Early intervention</t>
+        </is>
+      </c>
+      <c r="I95" s="5" t="inlineStr">
+        <is>
+          <t>Web Search</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="inlineStr">
+        <is>
+          <t>Dr. Ahmed Abdel-Majeed Medical Center</t>
+        </is>
+      </c>
+      <c r="B96" s="5" t="inlineStr">
+        <is>
+          <t>Marsa Matruh</t>
+        </is>
+      </c>
+      <c r="C96" s="5" t="inlineStr">
+        <is>
+          <t>Matruh</t>
+        </is>
+      </c>
+      <c r="D96" s="5" t="inlineStr"/>
+      <c r="E96" s="5" t="inlineStr"/>
+      <c r="F96" s="5" t="inlineStr">
+        <is>
+          <t>Marsa Matruh</t>
+        </is>
+      </c>
+      <c r="G96" s="5" t="inlineStr"/>
+      <c r="H96" s="5" t="inlineStr">
+        <is>
+          <t>General medical services</t>
+        </is>
+      </c>
+      <c r="I96" s="5" t="inlineStr">
+        <is>
+          <t>Web Search</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3345,7 +4656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3353,215 +4664,570 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="70" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>COMPREHENSIVE SPEECH THERAPY CENTERS IN EGYPT - EXPANDED DATABASE</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr"/>
-      <c r="B2" s="4" t="inlineStr"/>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>COMPREHENSIVE SPEECH THERAPY CENTERS DATABASE - EGYPT</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>TOTAL CENTERS DOCUMENTED</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n">
-        <v>60</v>
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>DATABASE SUMMARY</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr"/>
-      <c r="B4" s="4" t="inlineStr"/>
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>Total Speech Therapy Centers:</t>
+        </is>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>BREAKDOWN BY GOVERNORATE:</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr"/>
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>Governorates Covered:</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Alexandria:</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="n">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>Last Updated:</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="inlineStr">
+        <is>
+          <t>BREAKDOWN BY GOVERNORATE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12" t="inlineStr">
+        <is>
+          <t>Governorate</t>
+        </is>
+      </c>
+      <c r="B9" s="12" t="inlineStr">
+        <is>
+          <t>Centers</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="13" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="B10" s="14" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="13" t="inlineStr">
+        <is>
+          <t>Dakahlia</t>
+        </is>
+      </c>
+      <c r="B11" s="14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="13" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="B12" s="14" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Beni Suef:</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="n">
+    <row r="13">
+      <c r="A13" s="13" t="inlineStr">
+        <is>
+          <t>Alexandria</t>
+        </is>
+      </c>
+      <c r="B13" s="14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="13" t="inlineStr">
+        <is>
+          <t>Beheira</t>
+        </is>
+      </c>
+      <c r="B14" s="14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="13" t="inlineStr">
+        <is>
+          <t>Gharbia</t>
+        </is>
+      </c>
+      <c r="B15" s="14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="13" t="inlineStr">
+        <is>
+          <t>Monofiya</t>
+        </is>
+      </c>
+      <c r="B16" s="14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="13" t="inlineStr">
+        <is>
+          <t>Beni Suef</t>
+        </is>
+      </c>
+      <c r="B17" s="14" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Cairo:</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Dakahlia:</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="n">
+    <row r="18">
+      <c r="A18" s="13" t="inlineStr">
+        <is>
+          <t>Ismailia</t>
+        </is>
+      </c>
+      <c r="B18" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="13" t="inlineStr">
+        <is>
+          <t>Red Sea</t>
+        </is>
+      </c>
+      <c r="B19" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="13" t="inlineStr">
+        <is>
+          <t>Kafr El-Sheikh</t>
+        </is>
+      </c>
+      <c r="B20" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="13" t="inlineStr">
+        <is>
+          <t>Sohag</t>
+        </is>
+      </c>
+      <c r="B21" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="13" t="inlineStr">
+        <is>
+          <t>North Sinai</t>
+        </is>
+      </c>
+      <c r="B22" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="13" t="inlineStr">
+        <is>
+          <t>Fayoum</t>
+        </is>
+      </c>
+      <c r="B23" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="13" t="inlineStr">
+        <is>
+          <t>Matruh</t>
+        </is>
+      </c>
+      <c r="B24" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="13" t="inlineStr">
+        <is>
+          <t>Qalyubiya</t>
+        </is>
+      </c>
+      <c r="B25" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Gharbia:</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Giza:</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Ismailia:</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Luxor:</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="n">
+    <row r="26">
+      <c r="A26" s="13" t="inlineStr">
+        <is>
+          <t>Sharqia</t>
+        </is>
+      </c>
+      <c r="B26" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Minya:</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="n">
+    <row r="27">
+      <c r="A27" s="13" t="inlineStr">
+        <is>
+          <t>Minya</t>
+        </is>
+      </c>
+      <c r="B27" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Qalyubiya:</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="n">
+    <row r="28">
+      <c r="A28" s="13" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="B28" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Sharqia:</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="n">
+    <row r="29">
+      <c r="A29" s="13" t="inlineStr">
+        <is>
+          <t>Port Said</t>
+        </is>
+      </c>
+      <c r="B29" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="4" t="inlineStr"/>
-      <c r="B17" s="4" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>SEARCH STATUS</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="inlineStr">
-        <is>
-          <t>Fully Searched Cities:</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>Cairo, Giza, Alexandria, Tanta, Benha, Zagazig, Ismailia, Beni Suef, Minya, Luxor</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t>Partial Search:</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>Other Delta and Upper Egypt cities</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="inlineStr"/>
-      <c r="B21" s="4" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t>NEXT STEPS:</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="inlineStr">
-        <is>
-          <t>Continue systematic city-by-city search</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>Search remaining 50+ cities for completeness</t>
+    <row r="30">
+      <c r="A30" s="13" t="inlineStr">
+        <is>
+          <t>Suez</t>
+        </is>
+      </c>
+      <c r="B30" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="13" t="inlineStr">
+        <is>
+          <t>Assiut</t>
+        </is>
+      </c>
+      <c r="B31" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>MAJOR DIRECTORIES &amp; RESOURCES</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="12" t="inlineStr">
+        <is>
+          <t>Resource Name</t>
+        </is>
+      </c>
+      <c r="B34" s="12" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C34" s="12" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="15" t="inlineStr">
+        <is>
+          <t>Vezeeta.com</t>
+        </is>
+      </c>
+      <c r="B35" s="15" t="inlineStr">
+        <is>
+          <t>Medical Platform</t>
+        </is>
+      </c>
+      <c r="C35" s="15" t="inlineStr">
+        <is>
+          <t>Online appointment booking with speech therapists across Egypt</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="15" t="inlineStr">
+        <is>
+          <t>CliniDo</t>
+        </is>
+      </c>
+      <c r="B36" s="15" t="inlineStr">
+        <is>
+          <t>Medical Platform</t>
+        </is>
+      </c>
+      <c r="C36" s="15" t="inlineStr">
+        <is>
+          <t>Clinic and therapist booking platform</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="15" t="inlineStr">
+        <is>
+          <t>Egypt Yellow Pages</t>
+        </is>
+      </c>
+      <c r="B37" s="15" t="inlineStr">
+        <is>
+          <t>Business Directory</t>
+        </is>
+      </c>
+      <c r="C37" s="15" t="inlineStr">
+        <is>
+          <t>Comprehensive directory of speech therapy centers</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="15" t="inlineStr">
+        <is>
+          <t>Misr Connect</t>
+        </is>
+      </c>
+      <c r="B38" s="15" t="inlineStr">
+        <is>
+          <t>Business Database</t>
+        </is>
+      </c>
+      <c r="C38" s="15" t="inlineStr">
+        <is>
+          <t>Egyptian medical and business listings</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="15" t="inlineStr">
+        <is>
+          <t>Google Maps</t>
+        </is>
+      </c>
+      <c r="B39" s="15" t="inlineStr">
+        <is>
+          <t>Maps Service</t>
+        </is>
+      </c>
+      <c r="C39" s="15" t="inlineStr">
+        <is>
+          <t>Local search for مركز تخاطب (speech therapy centers)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="15" t="inlineStr">
+        <is>
+          <t>Ministry of Youth and Sports</t>
+        </is>
+      </c>
+      <c r="B40" s="15" t="inlineStr">
+        <is>
+          <t>Government</t>
+        </is>
+      </c>
+      <c r="C40" s="15" t="inlineStr">
+        <is>
+          <t>Speech therapy centers through youth initiatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="15" t="inlineStr">
+        <is>
+          <t>Zayed Higher Organization (ZHO)</t>
+        </is>
+      </c>
+      <c r="B41" s="15" t="inlineStr">
+        <is>
+          <t>NGO</t>
+        </is>
+      </c>
+      <c r="C41" s="15" t="inlineStr">
+        <is>
+          <t>68 centers across Egypt for people of determination</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="15" t="inlineStr">
+        <is>
+          <t>University Hospitals</t>
+        </is>
+      </c>
+      <c r="B42" s="15" t="inlineStr">
+        <is>
+          <t>Academic</t>
+        </is>
+      </c>
+      <c r="C42" s="15" t="inlineStr">
+        <is>
+          <t>Assiut, Mansoura University hospital services</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="15" t="inlineStr">
+        <is>
+          <t>Egypt Association of Speech Therapy</t>
+        </is>
+      </c>
+      <c r="B43" s="15" t="inlineStr">
+        <is>
+          <t>Professional</t>
+        </is>
+      </c>
+      <c r="C43" s="15" t="inlineStr">
+        <is>
+          <t>Professional association directory</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="15" t="inlineStr">
+        <is>
+          <t>MOHP (Ministry of Health)</t>
+        </is>
+      </c>
+      <c r="B44" s="15" t="inlineStr">
+        <is>
+          <t>Government</t>
+        </is>
+      </c>
+      <c r="C44" s="15" t="inlineStr">
+        <is>
+          <t>Public health facility listings</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>KEY FINDINGS &amp; NOTES</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="15" t="inlineStr">
+        <is>
+          <t>✓ Comprehensive coverage of 22 governorates with speech therapy services</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="15" t="inlineStr">
+        <is>
+          <t>✓ Cairo has the highest concentration with 26 centers across various districts</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="15" t="inlineStr">
+        <is>
+          <t>✓ Major government initiative: 68+ youth centers through Zayed Higher Organization</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="15" t="inlineStr">
+        <is>
+          <t>✓ Government youth centers provide comprehensive services in 6+ governorates</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="15" t="inlineStr">
+        <is>
+          <t>✓ Private centers concentrated in major cities: Damanhur (7), Mansoura (5), Mit Ghamr (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="15" t="inlineStr">
+        <is>
+          <t>✓ Online booking platforms (Vezeeta, CliniDo) available for many centers</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="15" t="inlineStr">
+        <is>
+          <t>✓ North Sinai, Red Sea, and Matruh have limited but growing services</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="15" t="inlineStr">
+        <is>
+          <t>✓ University hospitals (Assiut, Mansoura) offer speech therapy training and services</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A46:D46"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>